--- a/0930/predictions_compare_more_models.xlsx
+++ b/0930/predictions_compare_more_models.xlsx
@@ -483,22 +483,22 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227498371441332</v>
+        <v>1.215516663750888</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>1.348257165028082</v>
+        <v>1.376231049093284</v>
       </c>
       <c r="F2" t="n">
-        <v>1.343044734393692</v>
+        <v>1.377776237895595</v>
       </c>
       <c r="G2" t="n">
-        <v>1.444166396860814</v>
+        <v>1.441978421977602</v>
       </c>
       <c r="H2" t="n">
-        <v>1.116848072286554</v>
+        <v>1.139132371873605</v>
       </c>
     </row>
     <row r="3">
@@ -509,22 +509,22 @@
         <v>1.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.356953597057137</v>
+        <v>1.401515161711004</v>
       </c>
       <c r="D3" t="n">
         <v>135</v>
       </c>
       <c r="E3" t="n">
-        <v>1.561284412010711</v>
+        <v>1.57259758680332</v>
       </c>
       <c r="F3" t="n">
-        <v>1.483815531573206</v>
+        <v>1.477728554791605</v>
       </c>
       <c r="G3" t="n">
-        <v>1.694316448426945</v>
+        <v>1.737167393449542</v>
       </c>
       <c r="H3" t="n">
-        <v>1.318214864586084</v>
+        <v>1.362777102523064</v>
       </c>
     </row>
     <row r="4">
@@ -535,22 +535,22 @@
         <v>2.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1.474860960797426</v>
+        <v>1.550001883804148</v>
       </c>
       <c r="D4" t="n">
         <v>225</v>
       </c>
       <c r="E4" t="n">
-        <v>1.653012488014024</v>
+        <v>1.662708550114554</v>
       </c>
       <c r="F4" t="n">
-        <v>1.642738997790783</v>
+        <v>1.662916041425133</v>
       </c>
       <c r="G4" t="n">
-        <v>1.706629152527543</v>
+        <v>1.654902040852815</v>
       </c>
       <c r="H4" t="n">
-        <v>1.489652902106847</v>
+        <v>1.531705390363035</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         <v>3.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.58075596089122</v>
+        <v>1.664730042132333</v>
       </c>
       <c r="D5" t="n">
         <v>315</v>
       </c>
       <c r="E5" t="n">
-        <v>1.689775740305099</v>
+        <v>1.699870310998905</v>
       </c>
       <c r="F5" t="n">
-        <v>1.688933683761833</v>
+        <v>1.695397507515965</v>
       </c>
       <c r="G5" t="n">
-        <v>1.634320337839491</v>
+        <v>1.716655948117902</v>
       </c>
       <c r="H5" t="n">
-        <v>1.620497042954596</v>
+        <v>1.64546558903841</v>
       </c>
     </row>
     <row r="6">
@@ -587,22 +587,22 @@
         <v>4.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.674174095567542</v>
+        <v>1.749452848797573</v>
       </c>
       <c r="D6" t="n">
         <v>405</v>
       </c>
       <c r="E6" t="n">
-        <v>1.690003364561574</v>
+        <v>1.694690878757704</v>
       </c>
       <c r="F6" t="n">
-        <v>1.692189379501141</v>
+        <v>1.695397507515965</v>
       </c>
       <c r="G6" t="n">
-        <v>1.658617560162008</v>
+        <v>1.663341109247697</v>
       </c>
       <c r="H6" t="n">
-        <v>1.707558699238729</v>
+        <v>1.712574490606709</v>
       </c>
     </row>
     <row r="7">
@@ -613,22 +613,22 @@
         <v>5.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.754650863055414</v>
+        <v>1.807923515901881</v>
       </c>
       <c r="D7" t="n">
         <v>495</v>
       </c>
       <c r="E7" t="n">
-        <v>1.702180301257963</v>
+        <v>1.703501256638805</v>
       </c>
       <c r="F7" t="n">
-        <v>1.691019437567951</v>
+        <v>1.698439599990612</v>
       </c>
       <c r="G7" t="n">
-        <v>1.699234643208812</v>
+        <v>1.692884359138055</v>
       </c>
       <c r="H7" t="n">
-        <v>1.754686855136691</v>
+        <v>1.74620251433653</v>
       </c>
     </row>
     <row r="8">
@@ -639,22 +639,22 @@
         <v>6.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1.82172176158386</v>
+        <v>1.843895255547275</v>
       </c>
       <c r="D8" t="n">
         <v>585</v>
       </c>
       <c r="E8" t="n">
-        <v>1.751596673621749</v>
+        <v>1.757490833070966</v>
       </c>
       <c r="F8" t="n">
-        <v>1.744609206394411</v>
+        <v>1.747057124734322</v>
       </c>
       <c r="G8" t="n">
-        <v>1.735709600731663</v>
+        <v>1.75367468487378</v>
       </c>
       <c r="H8" t="n">
-        <v>1.770869903737598</v>
+        <v>1.759595509833189</v>
       </c>
     </row>
     <row r="9">
@@ -665,22 +665,22 @@
         <v>7.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1.874922289381901</v>
+        <v>1.861121279835767</v>
       </c>
       <c r="D9" t="n">
         <v>675</v>
       </c>
       <c r="E9" t="n">
-        <v>1.746966350436402</v>
+        <v>1.75929149365974</v>
       </c>
       <c r="F9" t="n">
-        <v>1.746117633222731</v>
+        <v>1.747824968489704</v>
       </c>
       <c r="G9" t="n">
-        <v>1.769362144568632</v>
+        <v>1.773038988741332</v>
       </c>
       <c r="H9" t="n">
-        <v>1.767530378276799</v>
+        <v>1.762784861347745</v>
       </c>
     </row>
     <row r="10">
@@ -691,22 +691,22 @@
         <v>8.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1.913787944678562</v>
+        <v>1.863354800869371</v>
       </c>
       <c r="D10" t="n">
         <v>765</v>
       </c>
       <c r="E10" t="n">
-        <v>1.765049887420201</v>
+        <v>1.769068975313187</v>
       </c>
       <c r="F10" t="n">
-        <v>1.764448014472418</v>
+        <v>1.759896195166327</v>
       </c>
       <c r="G10" t="n">
-        <v>1.767710948565615</v>
+        <v>1.773038988741332</v>
       </c>
       <c r="H10" t="n">
-        <v>1.755773717845841</v>
+        <v>1.761406351674545</v>
       </c>
     </row>
     <row r="11">
@@ -717,22 +717,22 @@
         <v>9.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.937854225702862</v>
+        <v>1.854349030750102</v>
       </c>
       <c r="D11" t="n">
         <v>855</v>
       </c>
       <c r="E11" t="n">
-        <v>1.768822248235109</v>
+        <v>1.769783793171829</v>
       </c>
       <c r="F11" t="n">
-        <v>1.764448014472418</v>
+        <v>1.759896195166327</v>
       </c>
       <c r="G11" t="n">
-        <v>1.762986916313135</v>
+        <v>1.780413566332142</v>
       </c>
       <c r="H11" t="n">
-        <v>1.744220810433783</v>
+        <v>1.757482764268123</v>
       </c>
     </row>
     <row r="12">
@@ -743,22 +743,22 @@
         <v>10.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.946656630683828</v>
+        <v>1.837857181579974</v>
       </c>
       <c r="D12" t="n">
         <v>945</v>
       </c>
       <c r="E12" t="n">
-        <v>1.762688573748082</v>
+        <v>1.761429392548061</v>
       </c>
       <c r="F12" t="n">
-        <v>1.758230873097993</v>
+        <v>1.753340401311183</v>
       </c>
       <c r="G12" t="n">
-        <v>1.753798757394799</v>
+        <v>1.731913622834898</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7377764680064</v>
+        <v>1.75126729142172</v>
       </c>
     </row>
     <row r="13">
@@ -769,22 +769,22 @@
         <v>11.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.939730657850479</v>
+        <v>1.817632465461002</v>
       </c>
       <c r="D13" t="n">
         <v>1035</v>
       </c>
       <c r="E13" t="n">
-        <v>1.76142639913305</v>
+        <v>1.757473727425798</v>
       </c>
       <c r="F13" t="n">
-        <v>1.758230873097993</v>
+        <v>1.753340401311183</v>
       </c>
       <c r="G13" t="n">
-        <v>1.750691146016214</v>
+        <v>1.748075475831662</v>
       </c>
       <c r="H13" t="n">
-        <v>1.737386836228493</v>
+        <v>1.742999502078874</v>
       </c>
     </row>
     <row r="14">
@@ -795,22 +795,22 @@
         <v>12.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.916611805431839</v>
+        <v>1.797428094495199</v>
       </c>
       <c r="D14" t="n">
         <v>1125</v>
       </c>
       <c r="E14" t="n">
-        <v>1.749914625340851</v>
+        <v>1.751764972210009</v>
       </c>
       <c r="F14" t="n">
-        <v>1.746977945297301</v>
+        <v>1.745819247877833</v>
       </c>
       <c r="G14" t="n">
-        <v>1.778206399502384</v>
+        <v>1.748075475831662</v>
       </c>
       <c r="H14" t="n">
-        <v>1.740614653287378</v>
+        <v>1.733729333220363</v>
       </c>
     </row>
     <row r="15">
@@ -821,22 +821,22 @@
         <v>13.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.87683557165693</v>
+        <v>1.78099728078458</v>
       </c>
       <c r="D15" t="n">
         <v>1215</v>
       </c>
       <c r="E15" t="n">
-        <v>1.748607225939541</v>
+        <v>1.754431532562214</v>
       </c>
       <c r="F15" t="n">
-        <v>1.746977945297301</v>
+        <v>1.745819247877833</v>
       </c>
       <c r="G15" t="n">
-        <v>1.778206399502384</v>
+        <v>1.801571602591901</v>
       </c>
       <c r="H15" t="n">
-        <v>1.742749585190138</v>
+        <v>1.724996755655859</v>
       </c>
     </row>
     <row r="16">
@@ -847,22 +847,22 @@
         <v>14.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.819937454754776</v>
+        <v>1.772093236431159</v>
       </c>
       <c r="D16" t="n">
         <v>1305</v>
       </c>
       <c r="E16" t="n">
-        <v>1.725059903352016</v>
+        <v>1.743080162846783</v>
       </c>
       <c r="F16" t="n">
-        <v>1.727977500068525</v>
+        <v>1.729984506683174</v>
       </c>
       <c r="G16" t="n">
-        <v>1.698581057788256</v>
+        <v>1.804991037629599</v>
       </c>
       <c r="H16" t="n">
-        <v>1.738154652834046</v>
+        <v>1.717773884285575</v>
       </c>
     </row>
     <row r="17">
@@ -873,22 +873,22 @@
         <v>15.5</v>
       </c>
       <c r="C17" t="n">
-        <v>1.745452952954398</v>
+        <v>1.774469173536952</v>
       </c>
       <c r="D17" t="n">
         <v>1395</v>
       </c>
       <c r="E17" t="n">
-        <v>1.725059903352016</v>
+        <v>1.734367951811048</v>
       </c>
       <c r="F17" t="n">
-        <v>1.727977500068525</v>
+        <v>1.729984506683174</v>
       </c>
       <c r="G17" t="n">
-        <v>1.698581057788256</v>
+        <v>1.69938115329245</v>
       </c>
       <c r="H17" t="n">
-        <v>1.721587120733617</v>
+        <v>1.711397956073085</v>
       </c>
     </row>
     <row r="18">
@@ -899,22 +899,22 @@
         <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1.336003056569666</v>
+        <v>1.326178961144477</v>
       </c>
       <c r="D18" t="n">
         <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>1.250064747300104</v>
+        <v>1.278375099859788</v>
       </c>
       <c r="F18" t="n">
-        <v>1.232382708751548</v>
+        <v>1.302238019443132</v>
       </c>
       <c r="G18" t="n">
-        <v>1.216339375772517</v>
+        <v>1.299645933778078</v>
       </c>
       <c r="H18" t="n">
-        <v>1.251391333984559</v>
+        <v>1.288506283517012</v>
       </c>
     </row>
     <row r="19">
@@ -925,22 +925,22 @@
         <v>1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.45367212158046</v>
+        <v>1.495303523694878</v>
       </c>
       <c r="D19" t="n">
         <v>120</v>
       </c>
       <c r="E19" t="n">
-        <v>1.552851854667033</v>
+        <v>1.588881028941798</v>
       </c>
       <c r="F19" t="n">
-        <v>1.536492097165751</v>
+        <v>1.475183658119889</v>
       </c>
       <c r="G19" t="n">
-        <v>1.790729314516609</v>
+        <v>1.772215390324904</v>
       </c>
       <c r="H19" t="n">
-        <v>1.465019141072454</v>
+        <v>1.542943254977707</v>
       </c>
     </row>
     <row r="20">
@@ -951,22 +951,22 @@
         <v>2.5</v>
       </c>
       <c r="C20" t="n">
-        <v>1.561366940165951</v>
+        <v>1.628897924049789</v>
       </c>
       <c r="D20" t="n">
         <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>1.807530358655258</v>
+        <v>1.695893018001815</v>
       </c>
       <c r="F20" t="n">
-        <v>1.834518210541024</v>
+        <v>1.696568713838118</v>
       </c>
       <c r="G20" t="n">
-        <v>1.907201401135553</v>
+        <v>1.694739825395174</v>
       </c>
       <c r="H20" t="n">
-        <v>1.650267162624955</v>
+        <v>1.731187008121598</v>
       </c>
     </row>
     <row r="21">
@@ -977,22 +977,22 @@
         <v>3.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1.658623010555161</v>
+        <v>1.730715374311226</v>
       </c>
       <c r="D21" t="n">
         <v>280</v>
       </c>
       <c r="E21" t="n">
-        <v>1.820900911529585</v>
+        <v>1.763697477986143</v>
       </c>
       <c r="F21" t="n">
-        <v>1.850158981939442</v>
+        <v>1.765411653374735</v>
       </c>
       <c r="G21" t="n">
-        <v>1.825294634990971</v>
+        <v>1.726743182019705</v>
       </c>
       <c r="H21" t="n">
-        <v>1.795421021631652</v>
+        <v>1.851239558909971</v>
       </c>
     </row>
     <row r="22">
@@ -1003,22 +1003,22 @@
         <v>4.5</v>
       </c>
       <c r="C22" t="n">
-        <v>1.744975830977112</v>
+        <v>1.804509086581202</v>
       </c>
       <c r="D22" t="n">
         <v>360</v>
       </c>
       <c r="E22" t="n">
-        <v>1.829549023311899</v>
+        <v>1.754808379863739</v>
       </c>
       <c r="F22" t="n">
-        <v>1.856380503501046</v>
+        <v>1.765411653374735</v>
       </c>
       <c r="G22" t="n">
-        <v>1.849591857313488</v>
+        <v>1.716708565291625</v>
       </c>
       <c r="H22" t="n">
-        <v>1.896204705188903</v>
+        <v>1.912157820291254</v>
       </c>
     </row>
     <row r="23">
@@ -1029,22 +1029,22 @@
         <v>5.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.819960899660828</v>
+        <v>1.854032272961732</v>
       </c>
       <c r="D23" t="n">
         <v>440</v>
       </c>
       <c r="E23" t="n">
-        <v>1.856460278061336</v>
+        <v>1.770086907678106</v>
       </c>
       <c r="F23" t="n">
-        <v>1.851686413828324</v>
+        <v>1.776822866226572</v>
       </c>
       <c r="G23" t="n">
-        <v>1.849591857313488</v>
+        <v>1.717609093375462</v>
       </c>
       <c r="H23" t="n">
-        <v>1.955754025511275</v>
+        <v>1.929646884904904</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1055,22 @@
         <v>6.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.88311371483533</v>
+        <v>1.88303814555483</v>
       </c>
       <c r="D24" t="n">
         <v>520</v>
       </c>
       <c r="E24" t="n">
-        <v>1.904688185066928</v>
+        <v>1.844404139879796</v>
       </c>
       <c r="F24" t="n">
-        <v>1.917196631839349</v>
+        <v>1.850649352210298</v>
       </c>
       <c r="G24" t="n">
-        <v>1.954653362585808</v>
+        <v>1.784214447174453</v>
       </c>
       <c r="H24" t="n">
-        <v>1.982996305057547</v>
+        <v>1.92101195819272</v>
       </c>
     </row>
     <row r="25">
@@ -1081,22 +1081,22 @@
         <v>7.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.933969774729642</v>
+        <v>1.89527991646251</v>
       </c>
       <c r="D25" t="n">
         <v>600</v>
       </c>
       <c r="E25" t="n">
-        <v>1.928273571145725</v>
+        <v>1.859062767910292</v>
       </c>
       <c r="F25" t="n">
-        <v>1.92216663708238</v>
+        <v>1.852483301354251</v>
       </c>
       <c r="G25" t="n">
-        <v>1.954653362585808</v>
+        <v>1.851940270454148</v>
       </c>
       <c r="H25" t="n">
-        <v>1.989967507424501</v>
+        <v>1.901130629812821</v>
       </c>
     </row>
     <row r="26">
@@ -1107,22 +1107,22 @@
         <v>8.5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.972064577572786</v>
+        <v>1.894510797786787</v>
       </c>
       <c r="D26" t="n">
         <v>680</v>
       </c>
       <c r="E26" t="n">
-        <v>1.938958099051445</v>
+        <v>1.86633142732427</v>
       </c>
       <c r="F26" t="n">
-        <v>1.959467930824219</v>
+        <v>1.863061199920814</v>
       </c>
       <c r="G26" t="n">
-        <v>2.019953624336968</v>
+        <v>1.878579914485008</v>
       </c>
       <c r="H26" t="n">
-        <v>1.988802411505552</v>
+        <v>1.880420634936293</v>
       </c>
     </row>
     <row r="27">
@@ -1133,22 +1133,22 @@
         <v>9.5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.996933621593785</v>
+        <v>1.884484001629674</v>
       </c>
       <c r="D27" t="n">
         <v>760</v>
       </c>
       <c r="E27" t="n">
-        <v>1.961902972246397</v>
+        <v>1.866768315030147</v>
       </c>
       <c r="F27" t="n">
-        <v>1.961033626516225</v>
+        <v>1.863061199920814</v>
       </c>
       <c r="G27" t="n">
-        <v>2.019953624336968</v>
+        <v>1.878579914485008</v>
       </c>
       <c r="H27" t="n">
-        <v>1.98911093561562</v>
+        <v>1.864818167143862</v>
       </c>
     </row>
     <row r="28">
@@ -1159,22 +1159,22 @@
         <v>10.5</v>
       </c>
       <c r="C28" t="n">
-        <v>2.008112405021661</v>
+        <v>1.868952740093187</v>
       </c>
       <c r="D28" t="n">
         <v>840</v>
       </c>
       <c r="E28" t="n">
-        <v>1.985340587442819</v>
+        <v>1.85517029934528</v>
       </c>
       <c r="F28" t="n">
-        <v>2.00000996189956</v>
+        <v>1.849313987337827</v>
       </c>
       <c r="G28" t="n">
-        <v>2.022079944086979</v>
+        <v>1.885626402383936</v>
       </c>
       <c r="H28" t="n">
-        <v>1.99625416565652</v>
+        <v>1.856998718353903</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1185,22 @@
         <v>11.5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.005136426085437</v>
+        <v>1.85167022527934</v>
       </c>
       <c r="D29" t="n">
         <v>920</v>
       </c>
       <c r="E29" t="n">
-        <v>1.992499011856365</v>
+        <v>1.85143277750497</v>
       </c>
       <c r="F29" t="n">
-        <v>2.00000996189956</v>
+        <v>1.849313987337827</v>
       </c>
       <c r="G29" t="n">
-        <v>2.022079944086979</v>
+        <v>1.83637316088086</v>
       </c>
       <c r="H29" t="n">
-        <v>2.010750781288861</v>
+        <v>1.857784674871612</v>
       </c>
     </row>
     <row r="30">
@@ -1211,22 +1211,22 @@
         <v>12.5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.987541183014135</v>
+        <v>1.836389669290146</v>
       </c>
       <c r="D30" t="n">
         <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>2.005703068771101</v>
+        <v>1.85888277355847</v>
       </c>
       <c r="F30" t="n">
-        <v>2.011194975101596</v>
+        <v>1.857466761352085</v>
       </c>
       <c r="G30" t="n">
-        <v>2.021093096733986</v>
+        <v>1.83637316088086</v>
       </c>
       <c r="H30" t="n">
-        <v>2.028770546086122</v>
+        <v>1.866938612540647</v>
       </c>
     </row>
     <row r="31">
@@ -1237,22 +1237,22 @@
         <v>13.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1.954862174036778</v>
+        <v>1.82686428422762</v>
       </c>
       <c r="D31" t="n">
         <v>1080</v>
       </c>
       <c r="E31" t="n">
-        <v>2.005703068771101</v>
+        <v>1.852624375889536</v>
       </c>
       <c r="F31" t="n">
-        <v>2.011194975101596</v>
+        <v>1.857466761352085</v>
       </c>
       <c r="G31" t="n">
-        <v>2.021093096733986</v>
+        <v>1.852654823585426</v>
       </c>
       <c r="H31" t="n">
-        <v>2.043465799410499</v>
+        <v>1.883123322373624</v>
       </c>
     </row>
     <row r="32">
@@ -1263,22 +1263,22 @@
         <v>14.5</v>
       </c>
       <c r="C32" t="n">
-        <v>1.906634897382389</v>
+        <v>1.826847282193776</v>
       </c>
       <c r="D32" t="n">
         <v>1160</v>
       </c>
       <c r="E32" t="n">
-        <v>2.006427926239595</v>
+        <v>1.889202545879637</v>
       </c>
       <c r="F32" t="n">
-        <v>2.02628925444761</v>
+        <v>1.895138402079005</v>
       </c>
       <c r="G32" t="n">
-        <v>2.055733812615808</v>
+        <v>1.873683942497459</v>
       </c>
       <c r="H32" t="n">
-        <v>2.046774967500766</v>
+        <v>1.903380118003979</v>
       </c>
     </row>
     <row r="33">
@@ -1289,22 +1289,22 @@
         <v>15.5</v>
       </c>
       <c r="C33" t="n">
-        <v>1.84239485127999</v>
+        <v>1.840091875290629</v>
       </c>
       <c r="D33" t="n">
         <v>1240</v>
       </c>
       <c r="E33" t="n">
-        <v>2.006427926239595</v>
+        <v>1.891877908108306</v>
       </c>
       <c r="F33" t="n">
-        <v>2.02628925444761</v>
+        <v>1.895138402079005</v>
       </c>
       <c r="G33" t="n">
-        <v>2.055733812615808</v>
+        <v>1.93805224253854</v>
       </c>
       <c r="H33" t="n">
-        <v>2.031298330260168</v>
+        <v>1.922755599273039</v>
       </c>
     </row>
     <row r="34">
@@ -1315,22 +1315,22 @@
         <v>0.5</v>
       </c>
       <c r="C34" t="n">
-        <v>1.318523571438768</v>
+        <v>1.314011210837152</v>
       </c>
       <c r="D34" t="n">
         <v>35</v>
       </c>
       <c r="E34" t="n">
-        <v>1.232898477711972</v>
+        <v>1.211143341679063</v>
       </c>
       <c r="F34" t="n">
-        <v>1.232382708751548</v>
+        <v>1.246679443670324</v>
       </c>
       <c r="G34" t="n">
-        <v>1.216339375772517</v>
+        <v>1.214928735428943</v>
       </c>
       <c r="H34" t="n">
-        <v>1.235291456281627</v>
+        <v>1.29283030167539</v>
       </c>
     </row>
     <row r="35">
@@ -1341,22 +1341,22 @@
         <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>1.423053114738049</v>
+        <v>1.465707888029905</v>
       </c>
       <c r="D35" t="n">
         <v>105</v>
       </c>
       <c r="E35" t="n">
-        <v>1.457888720968937</v>
+        <v>1.500932228505245</v>
       </c>
       <c r="F35" t="n">
-        <v>1.536492097165751</v>
+        <v>1.469903888235069</v>
       </c>
       <c r="G35" t="n">
-        <v>1.453364213034409</v>
+        <v>1.492108374728894</v>
       </c>
       <c r="H35" t="n">
-        <v>1.409809597264391</v>
+        <v>1.525286772157331</v>
       </c>
     </row>
     <row r="36">
@@ -1367,22 +1367,22 @@
         <v>2.5</v>
       </c>
       <c r="C36" t="n">
-        <v>1.519182027062238</v>
+        <v>1.583856016698654</v>
       </c>
       <c r="D36" t="n">
         <v>175</v>
       </c>
       <c r="E36" t="n">
-        <v>1.782885120889588</v>
+        <v>1.818461755291091</v>
       </c>
       <c r="F36" t="n">
-        <v>1.834518210541024</v>
+        <v>1.873924880536386</v>
       </c>
       <c r="G36" t="n">
-        <v>1.907201401135553</v>
+        <v>1.773500557127218</v>
       </c>
       <c r="H36" t="n">
-        <v>1.568216158331678</v>
+        <v>1.690643871612694</v>
       </c>
     </row>
     <row r="37">
@@ -1393,22 +1393,22 @@
         <v>3.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1.606445806640362</v>
+        <v>1.672208808945412</v>
       </c>
       <c r="D37" t="n">
         <v>245</v>
       </c>
       <c r="E37" t="n">
-        <v>1.824415238839387</v>
+        <v>1.816072147518899</v>
       </c>
       <c r="F37" t="n">
-        <v>1.850158981939442</v>
+        <v>1.867557593288655</v>
       </c>
       <c r="G37" t="n">
-        <v>1.825294634990971</v>
+        <v>1.817426190701579</v>
       </c>
       <c r="H37" t="n">
-        <v>1.70079224519812</v>
+        <v>1.787356435657011</v>
       </c>
     </row>
     <row r="38">
@@ -1419,22 +1419,22 @@
         <v>4.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.684379951701439</v>
+        <v>1.734519476872193</v>
       </c>
       <c r="D38" t="n">
         <v>315</v>
       </c>
       <c r="E38" t="n">
-        <v>1.83529953294897</v>
+        <v>1.840189630151497</v>
       </c>
       <c r="F38" t="n">
-        <v>1.856380503501046</v>
+        <v>1.867557593288655</v>
       </c>
       <c r="G38" t="n">
-        <v>1.825294634990971</v>
+        <v>1.864508411036716</v>
       </c>
       <c r="H38" t="n">
-        <v>1.802789722088158</v>
+        <v>1.824999127884533</v>
       </c>
     </row>
     <row r="39">
@@ -1445,22 +1445,22 @@
         <v>5.5</v>
       </c>
       <c r="C39" t="n">
-        <v>1.752519960474495</v>
+        <v>1.774541232581012</v>
       </c>
       <c r="D39" t="n">
         <v>385</v>
       </c>
       <c r="E39" t="n">
-        <v>1.830028607177697</v>
+        <v>1.836500788974757</v>
       </c>
       <c r="F39" t="n">
-        <v>1.851686413828324</v>
+        <v>1.863220180686156</v>
       </c>
       <c r="G39" t="n">
-        <v>1.849591857313488</v>
+        <v>1.811944164859008</v>
       </c>
       <c r="H39" t="n">
-        <v>1.874766565224007</v>
+        <v>1.820097530752291</v>
       </c>
     </row>
     <row r="40">
@@ -1471,22 +1471,22 @@
         <v>6.5</v>
       </c>
       <c r="C40" t="n">
-        <v>1.810401331188551</v>
+        <v>1.796027288173883</v>
       </c>
       <c r="D40" t="n">
         <v>455</v>
       </c>
       <c r="E40" t="n">
-        <v>1.883472947829482</v>
+        <v>1.907330340021373</v>
       </c>
       <c r="F40" t="n">
-        <v>1.917196631839349</v>
+        <v>1.930505266994771</v>
       </c>
       <c r="G40" t="n">
-        <v>1.902289214952709</v>
+        <v>1.860013657965365</v>
       </c>
       <c r="H40" t="n">
-        <v>1.921719062056974</v>
+        <v>1.791256427505334</v>
       </c>
     </row>
     <row r="41">
@@ -1497,22 +1497,22 @@
         <v>7.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.85755956207263</v>
+        <v>1.802730855752821</v>
       </c>
       <c r="D41" t="n">
         <v>525</v>
       </c>
       <c r="E41" t="n">
-        <v>1.905868309804061</v>
+        <v>1.926996085614492</v>
       </c>
       <c r="F41" t="n">
-        <v>1.92216663708238</v>
+        <v>1.932320843513438</v>
       </c>
       <c r="G41" t="n">
-        <v>1.954653362585808</v>
+        <v>1.949642489935415</v>
       </c>
       <c r="H41" t="n">
-        <v>1.951296848904776</v>
+        <v>1.755148068775033</v>
       </c>
     </row>
     <row r="42">
@@ -1523,22 +1523,22 @@
         <v>8.5</v>
       </c>
       <c r="C42" t="n">
-        <v>1.893530151355755</v>
+        <v>1.798405147419839</v>
       </c>
       <c r="D42" t="n">
         <v>595</v>
       </c>
       <c r="E42" t="n">
-        <v>1.94311871352919</v>
+        <v>1.947752426524918</v>
       </c>
       <c r="F42" t="n">
-        <v>1.959467930824219</v>
+        <v>1.95353880441006</v>
       </c>
       <c r="G42" t="n">
-        <v>1.954653362585808</v>
+        <v>1.946275341937694</v>
       </c>
       <c r="H42" t="n">
-        <v>1.971600205543251</v>
+        <v>1.724284883035401</v>
       </c>
     </row>
     <row r="43">
@@ -1549,22 +1549,22 @@
         <v>9.5</v>
       </c>
       <c r="C43" t="n">
-        <v>1.917848597266948</v>
+        <v>1.786803375276952</v>
       </c>
       <c r="D43" t="n">
         <v>665</v>
       </c>
       <c r="E43" t="n">
-        <v>1.939584377328247</v>
+        <v>1.94836210919175</v>
       </c>
       <c r="F43" t="n">
-        <v>1.961033626516225</v>
+        <v>1.95353880441006</v>
       </c>
       <c r="G43" t="n">
-        <v>2.019953624336968</v>
+        <v>2.013884632726196</v>
       </c>
       <c r="H43" t="n">
-        <v>1.989118727551222</v>
+        <v>1.706613187882535</v>
       </c>
     </row>
     <row r="44">
@@ -1575,22 +1575,22 @@
         <v>10.5</v>
       </c>
       <c r="C44" t="n">
-        <v>1.930050398035231</v>
+        <v>1.771678751426174</v>
       </c>
       <c r="D44" t="n">
         <v>735</v>
       </c>
       <c r="E44" t="n">
-        <v>1.981040368241733</v>
+        <v>1.980187353789506</v>
       </c>
       <c r="F44" t="n">
-        <v>2.00000996189956</v>
+        <v>1.98414329534604</v>
       </c>
       <c r="G44" t="n">
-        <v>2.013743216352216</v>
+        <v>2.013575704019899</v>
       </c>
       <c r="H44" t="n">
-        <v>2.007279453433123</v>
+        <v>1.706251972657407</v>
       </c>
     </row>
     <row r="45">
@@ -1601,22 +1601,22 @@
         <v>11.5</v>
       </c>
       <c r="C45" t="n">
-        <v>1.929671051889629</v>
+        <v>1.75678448796952</v>
       </c>
       <c r="D45" t="n">
         <v>805</v>
       </c>
       <c r="E45" t="n">
-        <v>1.981834899150341</v>
+        <v>1.979448407852052</v>
       </c>
       <c r="F45" t="n">
-        <v>2.00000996189956</v>
+        <v>1.98414329534604</v>
       </c>
       <c r="G45" t="n">
-        <v>2.012657246759428</v>
+        <v>2.021220828469848</v>
       </c>
       <c r="H45" t="n">
-        <v>2.025877030894695</v>
+        <v>1.724456401542867</v>
       </c>
     </row>
     <row r="46">
@@ -1627,22 +1627,22 @@
         <v>12.5</v>
       </c>
       <c r="C46" t="n">
-        <v>1.916246057059162</v>
+        <v>1.745873797009003</v>
       </c>
       <c r="D46" t="n">
         <v>875</v>
       </c>
       <c r="E46" t="n">
-        <v>1.997205890080067</v>
+        <v>1.980108737496728</v>
       </c>
       <c r="F46" t="n">
-        <v>2.011194975101596</v>
+        <v>1.984837745877753</v>
       </c>
       <c r="G46" t="n">
-        <v>2.022079944086979</v>
+        <v>2.021220828469848</v>
       </c>
       <c r="H46" t="n">
-        <v>2.041424446986976</v>
+        <v>1.760140383505785</v>
       </c>
     </row>
     <row r="47">
@@ -1653,22 +1653,22 @@
         <v>13.5</v>
       </c>
       <c r="C47" t="n">
-        <v>1.889310911772854</v>
+        <v>1.742699890646639</v>
       </c>
       <c r="D47" t="n">
         <v>945</v>
       </c>
       <c r="E47" t="n">
-        <v>1.999728261626725</v>
+        <v>1.976214607576119</v>
       </c>
       <c r="F47" t="n">
-        <v>2.011194975101596</v>
+        <v>1.984837745877753</v>
       </c>
       <c r="G47" t="n">
-        <v>2.022079944086979</v>
+        <v>1.972238133825907</v>
       </c>
       <c r="H47" t="n">
-        <v>2.048251980504419</v>
+        <v>1.809830648842666</v>
       </c>
     </row>
     <row r="48">
@@ -1679,22 +1679,22 @@
         <v>14.5</v>
       </c>
       <c r="C48" t="n">
-        <v>1.848401114259727</v>
+        <v>1.751015980984441</v>
       </c>
       <c r="D48" t="n">
         <v>1015</v>
       </c>
       <c r="E48" t="n">
-        <v>2.008134929870896</v>
+        <v>1.979803700036617</v>
       </c>
       <c r="F48" t="n">
-        <v>2.02628925444761</v>
+        <v>1.98556943940042</v>
       </c>
       <c r="G48" t="n">
-        <v>2.018392262702021</v>
+        <v>1.985808263808495</v>
       </c>
       <c r="H48" t="n">
-        <v>2.040037248002415</v>
+        <v>1.86742194457662</v>
       </c>
     </row>
     <row r="49">
@@ -1705,22 +1705,22 @@
         <v>15.5</v>
       </c>
       <c r="C49" t="n">
-        <v>1.793052162748803</v>
+        <v>1.774575280124424</v>
       </c>
       <c r="D49" t="n">
         <v>1085</v>
       </c>
       <c r="E49" t="n">
-        <v>2.007735325640905</v>
+        <v>1.977154875555458</v>
       </c>
       <c r="F49" t="n">
-        <v>2.02628925444761</v>
+        <v>1.98556943940042</v>
       </c>
       <c r="G49" t="n">
-        <v>2.018392262702021</v>
+        <v>2.00227505286765</v>
       </c>
       <c r="H49" t="n">
-        <v>2.011390472888695</v>
+        <v>1.924303037444222</v>
       </c>
     </row>
     <row r="50">
@@ -1731,22 +1731,22 @@
         <v>0.5</v>
       </c>
       <c r="C50" t="n">
-        <v>1.214551111934872</v>
+        <v>1.217171349622388</v>
       </c>
       <c r="D50" t="n">
         <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9724811063433551</v>
+        <v>0.9917561769490042</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9950117324026866</v>
+        <v>1.024715656436425</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9429655904288041</v>
+        <v>0.9750409677432291</v>
       </c>
       <c r="H50" t="n">
-        <v>1.107810195093007</v>
+        <v>1.180803999016909</v>
       </c>
     </row>
     <row r="51">
@@ -1757,22 +1757,22 @@
         <v>1.5</v>
       </c>
       <c r="C51" t="n">
-        <v>1.304587772416135</v>
+        <v>1.350886191509564</v>
       </c>
       <c r="D51" t="n">
         <v>90</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9517759769747873</v>
+        <v>1.004627825383537</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9173432412480951</v>
+        <v>0.974772791745707</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9694233779747038</v>
+        <v>1.012169458879034</v>
       </c>
       <c r="H51" t="n">
-        <v>1.207489049713151</v>
+        <v>1.347227627527825</v>
       </c>
     </row>
     <row r="52">
@@ -1783,22 +1783,22 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>1.387797417372522</v>
+        <v>1.453034098544218</v>
       </c>
       <c r="D52" t="n">
         <v>150</v>
       </c>
       <c r="E52" t="n">
-        <v>1.042954463638382</v>
+        <v>1.021949502889211</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9098338266270577</v>
+        <v>0.9689676864553026</v>
       </c>
       <c r="G52" t="n">
-        <v>1.075333127021831</v>
+        <v>1.13425871148518</v>
       </c>
       <c r="H52" t="n">
-        <v>1.311212914713223</v>
+        <v>1.457508653936733</v>
       </c>
     </row>
     <row r="53">
@@ -1809,22 +1809,22 @@
         <v>3.5</v>
       </c>
       <c r="C53" t="n">
-        <v>1.463715545033054</v>
+        <v>1.527368282828366</v>
       </c>
       <c r="D53" t="n">
         <v>210</v>
       </c>
       <c r="E53" t="n">
-        <v>1.058346104974422</v>
+        <v>1.021082415709615</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9670131915486232</v>
+        <v>0.9748873511940351</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9621908560595671</v>
+        <v>0.9640528669175789</v>
       </c>
       <c r="H53" t="n">
-        <v>1.413276176444527</v>
+        <v>1.512226894846897</v>
       </c>
     </row>
     <row r="54">
@@ -1835,22 +1835,22 @@
         <v>4.5</v>
       </c>
       <c r="C54" t="n">
-        <v>1.531877653626756</v>
+        <v>1.577641956464021</v>
       </c>
       <c r="D54" t="n">
         <v>270</v>
       </c>
       <c r="E54" t="n">
-        <v>1.109422596350019</v>
+        <v>1.067210328956346</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9670131915486232</v>
+        <v>0.9810256870201955</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9399996595321565</v>
+        <v>1.023751815954526</v>
       </c>
       <c r="H54" t="n">
-        <v>1.508581439611598</v>
+        <v>1.520801465440871</v>
       </c>
     </row>
     <row r="55">
@@ -1861,22 +1861,22 @@
         <v>5.5</v>
       </c>
       <c r="C55" t="n">
-        <v>1.591819241382648</v>
+        <v>1.607608331553198</v>
       </c>
       <c r="D55" t="n">
         <v>330</v>
       </c>
       <c r="E55" t="n">
-        <v>1.138568439491123</v>
+        <v>1.116047531192021</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9670131915486232</v>
+        <v>0.9959448425193338</v>
       </c>
       <c r="G55" t="n">
-        <v>1.004917804838747</v>
+        <v>1.113698231705293</v>
       </c>
       <c r="H55" t="n">
-        <v>1.593291259963492</v>
+        <v>1.497902351355832</v>
       </c>
     </row>
     <row r="56">
@@ -1887,22 +1887,22 @@
         <v>6.5</v>
       </c>
       <c r="C56" t="n">
-        <v>1.643075806529755</v>
+        <v>1.62102062019791</v>
       </c>
       <c r="D56" t="n">
         <v>390</v>
       </c>
       <c r="E56" t="n">
-        <v>1.145276910440089</v>
+        <v>1.135732572332439</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9677802357387165</v>
+        <v>1.053251992576512</v>
       </c>
       <c r="G56" t="n">
-        <v>1.037288799148293</v>
+        <v>1.079096949410118</v>
       </c>
       <c r="H56" t="n">
-        <v>1.665093154831508</v>
+        <v>1.459504517248377</v>
       </c>
     </row>
     <row r="57">
@@ -1913,22 +1913,22 @@
         <v>7.5</v>
       </c>
       <c r="C57" t="n">
-        <v>1.685182847297098</v>
+        <v>1.621632034500174</v>
       </c>
       <c r="D57" t="n">
         <v>450</v>
       </c>
       <c r="E57" t="n">
-        <v>1.148931886473226</v>
+        <v>1.143994261050849</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9757634979577747</v>
+        <v>1.056885126247409</v>
       </c>
       <c r="G57" t="n">
-        <v>1.037288799148293</v>
+        <v>1.089616635716635</v>
       </c>
       <c r="H57" t="n">
-        <v>1.723034786846411</v>
+        <v>1.419829175314104</v>
       </c>
     </row>
     <row r="58">
@@ -1939,22 +1939,22 @@
         <v>8.5</v>
       </c>
       <c r="C58" t="n">
-        <v>1.717675861913701</v>
+        <v>1.613195786562002</v>
       </c>
       <c r="D58" t="n">
         <v>510</v>
       </c>
       <c r="E58" t="n">
-        <v>1.191213501383056</v>
+        <v>1.153030055132886</v>
       </c>
       <c r="F58" t="n">
-        <v>1.014786928669805</v>
+        <v>1.061779576809884</v>
       </c>
       <c r="G58" t="n">
-        <v>1.082451001711435</v>
+        <v>1.103191284133397</v>
       </c>
       <c r="H58" t="n">
-        <v>1.76702964423841</v>
+        <v>1.389802802629032</v>
       </c>
     </row>
     <row r="59">
@@ -1965,22 +1965,22 @@
         <v>9.5</v>
       </c>
       <c r="C59" t="n">
-        <v>1.740090348608585</v>
+        <v>1.599465088485409</v>
       </c>
       <c r="D59" t="n">
         <v>570</v>
       </c>
       <c r="E59" t="n">
-        <v>1.199860430031501</v>
+        <v>1.192124207820493</v>
       </c>
       <c r="F59" t="n">
-        <v>1.016669225183878</v>
+        <v>1.062427145280645</v>
       </c>
       <c r="G59" t="n">
-        <v>1.082451001711435</v>
+        <v>1.135681439305692</v>
       </c>
       <c r="H59" t="n">
-        <v>1.797239508438578</v>
+        <v>1.376898069360705</v>
       </c>
     </row>
     <row r="60">
@@ -1991,22 +1991,22 @@
         <v>10.5</v>
       </c>
       <c r="C60" t="n">
-        <v>1.751961805610773</v>
+        <v>1.584193152372409</v>
       </c>
       <c r="D60" t="n">
         <v>630</v>
       </c>
       <c r="E60" t="n">
-        <v>1.212812959990866</v>
+        <v>1.216802931385459</v>
       </c>
       <c r="F60" t="n">
-        <v>1.042818611425859</v>
+        <v>1.084049223467187</v>
       </c>
       <c r="G60" t="n">
-        <v>1.074946254891262</v>
+        <v>1.217784603100516</v>
       </c>
       <c r="H60" t="n">
-        <v>1.81356896475188</v>
+        <v>1.385674053340636</v>
       </c>
     </row>
     <row r="61">
@@ -2017,22 +2017,22 @@
         <v>11.5</v>
       </c>
       <c r="C61" t="n">
-        <v>1.752825731149289</v>
+        <v>1.571133190325017</v>
       </c>
       <c r="D61" t="n">
         <v>690</v>
       </c>
       <c r="E61" t="n">
-        <v>1.211638798783158</v>
+        <v>1.218488229553589</v>
       </c>
       <c r="F61" t="n">
-        <v>1.042818611425859</v>
+        <v>1.084049223467187</v>
       </c>
       <c r="G61" t="n">
-        <v>1.095146927667601</v>
+        <v>1.217784603100516</v>
       </c>
       <c r="H61" t="n">
-        <v>1.815450548741828</v>
+        <v>1.418234735238324</v>
       </c>
     </row>
     <row r="62">
@@ -2043,22 +2043,22 @@
         <v>12.5</v>
       </c>
       <c r="C62" t="n">
-        <v>1.742217623453154</v>
+        <v>1.564038414445247</v>
       </c>
       <c r="D62" t="n">
         <v>750</v>
       </c>
       <c r="E62" t="n">
-        <v>1.218401203459332</v>
+        <v>1.224007729921905</v>
       </c>
       <c r="F62" t="n">
-        <v>1.048867059307264</v>
+        <v>1.08077582941612</v>
       </c>
       <c r="G62" t="n">
-        <v>1.095146927667601</v>
+        <v>1.218474205973469</v>
       </c>
       <c r="H62" t="n">
-        <v>1.801981958644356</v>
+        <v>1.474157376379702</v>
       </c>
     </row>
     <row r="63">
@@ -2069,22 +2069,22 @@
         <v>13.5</v>
       </c>
       <c r="C63" t="n">
-        <v>1.719672980751391</v>
+        <v>1.566662036835113</v>
       </c>
       <c r="D63" t="n">
         <v>810</v>
       </c>
       <c r="E63" t="n">
-        <v>1.218401203459332</v>
+        <v>1.223959723848217</v>
       </c>
       <c r="F63" t="n">
-        <v>1.048867059307264</v>
+        <v>1.08077582941612</v>
       </c>
       <c r="G63" t="n">
-        <v>1.093911431865192</v>
+        <v>1.226119330423416</v>
       </c>
       <c r="H63" t="n">
-        <v>1.772346099084558</v>
+        <v>1.549973793733135</v>
       </c>
     </row>
     <row r="64">
@@ -2095,22 +2095,22 @@
         <v>14.5</v>
       </c>
       <c r="C64" t="n">
-        <v>1.684727301273023</v>
+        <v>1.582757269596629</v>
       </c>
       <c r="D64" t="n">
         <v>870</v>
       </c>
       <c r="E64" t="n">
-        <v>1.231477322599338</v>
+        <v>1.216966007134172</v>
       </c>
       <c r="F64" t="n">
-        <v>1.07374406989948</v>
+        <v>1.065183337411283</v>
       </c>
       <c r="G64" t="n">
-        <v>1.101829588883361</v>
+        <v>1.239689460406004</v>
       </c>
       <c r="H64" t="n">
-        <v>1.72634897114434</v>
+        <v>1.638710156330938</v>
       </c>
     </row>
     <row r="65">
@@ -2121,22 +2121,22 @@
         <v>15.5</v>
       </c>
       <c r="C65" t="n">
-        <v>1.636916083247073</v>
+        <v>1.61607732483181</v>
       </c>
       <c r="D65" t="n">
         <v>930</v>
       </c>
       <c r="E65" t="n">
-        <v>1.231429554182804</v>
+        <v>1.216242156487813</v>
       </c>
       <c r="F65" t="n">
-        <v>1.07374406989948</v>
+        <v>1.065183337411283</v>
       </c>
       <c r="G65" t="n">
-        <v>1.101829588883361</v>
+        <v>1.192303961277708</v>
       </c>
       <c r="H65" t="n">
-        <v>1.664880198516526</v>
+        <v>1.730086263583451</v>
       </c>
     </row>
     <row r="66">
@@ -2147,22 +2147,22 @@
         <v>0.5</v>
       </c>
       <c r="C66" t="n">
-        <v>1.063576873944211</v>
+        <v>1.073817314293662</v>
       </c>
       <c r="D66" t="n">
         <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9920959406539405</v>
+        <v>1.01865711241135</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9935439675103603</v>
+        <v>1.022582382466039</v>
       </c>
       <c r="G66" t="n">
-        <v>1.034940090034331</v>
+        <v>1.033535578372694</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9712858792400721</v>
+        <v>1.044443109092117</v>
       </c>
     </row>
     <row r="67">
@@ -2173,22 +2173,22 @@
         <v>1.5</v>
       </c>
       <c r="C67" t="n">
-        <v>1.137767290500953</v>
+        <v>1.188996370927328</v>
       </c>
       <c r="D67" t="n">
         <v>75</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9361097213244345</v>
+        <v>0.9848567526713986</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9147340297662548</v>
+        <v>0.9721635802638667</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9078044413121442</v>
+        <v>1.005481430311632</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9924567306213797</v>
+        <v>1.128869217372849</v>
       </c>
     </row>
     <row r="68">
@@ -2199,22 +2199,22 @@
         <v>2.5</v>
       </c>
       <c r="C68" t="n">
-        <v>1.206704306983033</v>
+        <v>1.274590106379957</v>
       </c>
       <c r="D68" t="n">
         <v>125</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9795388616162097</v>
+        <v>0.9855117920748525</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9098338266270577</v>
+        <v>0.9630671129818366</v>
       </c>
       <c r="G68" t="n">
-        <v>1.053092712022635</v>
+        <v>1.13425871148518</v>
       </c>
       <c r="H68" t="n">
-        <v>1.038912395727373</v>
+        <v>1.177292128397879</v>
       </c>
     </row>
     <row r="69">
@@ -2225,22 +2225,22 @@
         <v>3.5</v>
       </c>
       <c r="C69" t="n">
-        <v>1.269923421619472</v>
+        <v>1.334351732753562</v>
       </c>
       <c r="D69" t="n">
         <v>175</v>
       </c>
       <c r="E69" t="n">
-        <v>1.012439373053035</v>
+        <v>0.9932880936050172</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9670131915486232</v>
+        <v>0.9697679737298395</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9621908560595671</v>
+        <v>0.9456444747210968</v>
       </c>
       <c r="H69" t="n">
-        <v>1.1089730973563</v>
+        <v>1.192828418784151</v>
       </c>
     </row>
     <row r="70">
@@ -2251,22 +2251,22 @@
         <v>4.5</v>
       </c>
       <c r="C70" t="n">
-        <v>1.326960132639294</v>
+        <v>1.37203446215016</v>
       </c>
       <c r="D70" t="n">
         <v>225</v>
       </c>
       <c r="E70" t="n">
-        <v>1.018255509995409</v>
+        <v>1.004052254749515</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9670131915486232</v>
+        <v>0.9759063095559999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9621908560595671</v>
+        <v>1.016613213233881</v>
       </c>
       <c r="H70" t="n">
-        <v>1.196758619064133</v>
+        <v>1.183298111200694</v>
       </c>
     </row>
     <row r="71">
@@ -2277,22 +2277,22 @@
         <v>5.5</v>
       </c>
       <c r="C71" t="n">
-        <v>1.37734993827152</v>
+        <v>1.391391506671763</v>
       </c>
       <c r="D71" t="n">
         <v>275</v>
       </c>
       <c r="E71" t="n">
-        <v>1.057749154244016</v>
+        <v>1.039215580638739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9670131915486232</v>
+        <v>0.9912591134568466</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9399996595321565</v>
+        <v>1.023751815954526</v>
       </c>
       <c r="H71" t="n">
-        <v>1.293158089304746</v>
+        <v>1.158521841306504</v>
       </c>
     </row>
     <row r="72">
@@ -2303,22 +2303,22 @@
         <v>6.5</v>
       </c>
       <c r="C72" t="n">
-        <v>1.420628336745175</v>
+        <v>1.396176078420386</v>
       </c>
       <c r="D72" t="n">
         <v>325</v>
       </c>
       <c r="E72" t="n">
-        <v>1.086809057197933</v>
+        <v>1.091283260991696</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9677802357387165</v>
+        <v>1.048566263514025</v>
       </c>
       <c r="G72" t="n">
-        <v>1.037288799148293</v>
+        <v>1.10602746835517</v>
       </c>
       <c r="H72" t="n">
-        <v>1.387345115219651</v>
+        <v>1.127940954492829</v>
       </c>
     </row>
     <row r="73">
@@ -2329,22 +2329,22 @@
         <v>7.5</v>
       </c>
       <c r="C73" t="n">
-        <v>1.456330826289279</v>
+        <v>1.390141389498044</v>
       </c>
       <c r="D73" t="n">
         <v>375</v>
       </c>
       <c r="E73" t="n">
-        <v>1.086709533122259</v>
+        <v>1.102527515200693</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9757634979577747</v>
+        <v>1.052199397184922</v>
       </c>
       <c r="G73" t="n">
-        <v>1.037288799148293</v>
+        <v>1.07819642132628</v>
       </c>
       <c r="H73" t="n">
-        <v>1.468455795673004</v>
+        <v>1.099320278567163</v>
       </c>
     </row>
     <row r="74">
@@ -2355,22 +2355,22 @@
         <v>8.5</v>
       </c>
       <c r="C74" t="n">
-        <v>1.483992905132856</v>
+        <v>1.377040652006751</v>
       </c>
       <c r="D74" t="n">
         <v>425</v>
       </c>
       <c r="E74" t="n">
-        <v>1.1054112737476</v>
+        <v>1.108409162452691</v>
       </c>
       <c r="F74" t="n">
-        <v>1.014786928669805</v>
+        <v>1.057093847747397</v>
       </c>
       <c r="G74" t="n">
-        <v>1.066479839920553</v>
+        <v>1.079096949410118</v>
       </c>
       <c r="H74" t="n">
-        <v>1.527092134964326</v>
+        <v>1.078673157415449</v>
       </c>
     </row>
     <row r="75">
@@ -2381,22 +2381,22 @@
         <v>9.5</v>
       </c>
       <c r="C75" t="n">
-        <v>1.503150071504928</v>
+        <v>1.36062707804852</v>
       </c>
       <c r="D75" t="n">
         <v>475</v>
       </c>
       <c r="E75" t="n">
-        <v>1.127937627167651</v>
+        <v>1.110363623625242</v>
       </c>
       <c r="F75" t="n">
-        <v>1.016669225183878</v>
+        <v>1.057741416218158</v>
       </c>
       <c r="G75" t="n">
-        <v>1.082451001711435</v>
+        <v>1.089616635716635</v>
       </c>
       <c r="H75" t="n">
-        <v>1.556444003581138</v>
+        <v>1.070930314507329</v>
       </c>
     </row>
     <row r="76">
@@ -2407,22 +2407,22 @@
         <v>10.5</v>
       </c>
       <c r="C76" t="n">
-        <v>1.513337823634518</v>
+        <v>1.344653879725367</v>
       </c>
       <c r="D76" t="n">
         <v>525</v>
       </c>
       <c r="E76" t="n">
-        <v>1.14201696571945</v>
+        <v>1.147300231589846</v>
       </c>
       <c r="F76" t="n">
-        <v>1.042818611425859</v>
+        <v>1.079001651415179</v>
       </c>
       <c r="G76" t="n">
-        <v>1.074086860526257</v>
+        <v>1.120480427250491</v>
       </c>
       <c r="H76" t="n">
-        <v>1.552963084834176</v>
+        <v>1.080561336903221</v>
       </c>
     </row>
     <row r="77">
@@ -2433,22 +2433,22 @@
         <v>11.5</v>
       </c>
       <c r="C77" t="n">
-        <v>1.514091659750649</v>
+        <v>1.332874269139306</v>
       </c>
       <c r="D77" t="n">
         <v>575</v>
       </c>
       <c r="E77" t="n">
-        <v>1.148713992111713</v>
+        <v>1.164576817738349</v>
       </c>
       <c r="F77" t="n">
-        <v>1.042818611425859</v>
+        <v>1.079001651415179</v>
       </c>
       <c r="G77" t="n">
-        <v>1.074086860526257</v>
+        <v>1.133479337158405</v>
       </c>
       <c r="H77" t="n">
-        <v>1.516612073479554</v>
+        <v>1.111488253397309</v>
       </c>
     </row>
     <row r="78">
@@ -2459,22 +2459,22 @@
         <v>12.5</v>
       </c>
       <c r="C78" t="n">
-        <v>1.504947078082343</v>
+        <v>1.32904145839235</v>
       </c>
       <c r="D78" t="n">
         <v>625</v>
       </c>
       <c r="E78" t="n">
-        <v>1.155679436756715</v>
+        <v>1.180423556269897</v>
       </c>
       <c r="F78" t="n">
-        <v>1.048867059307264</v>
+        <v>1.075728257364112</v>
       </c>
       <c r="G78" t="n">
-        <v>1.074946254891262</v>
+        <v>1.217784603100516</v>
       </c>
       <c r="H78" t="n">
-        <v>1.450735864204139</v>
+        <v>1.16611319479867</v>
       </c>
     </row>
     <row r="79">
@@ -2485,22 +2485,22 @@
         <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>1.485439576858623</v>
+        <v>1.336908659586515</v>
       </c>
       <c r="D79" t="n">
         <v>675</v>
       </c>
       <c r="E79" t="n">
-        <v>1.15435611379003</v>
+        <v>1.182325418964817</v>
       </c>
       <c r="F79" t="n">
-        <v>1.048867059307264</v>
+        <v>1.075728257364112</v>
       </c>
       <c r="G79" t="n">
-        <v>1.095146927667601</v>
+        <v>1.217784603100516</v>
       </c>
       <c r="H79" t="n">
-        <v>1.361586416005025</v>
+        <v>1.243851690405142</v>
       </c>
     </row>
     <row r="80">
@@ -2511,22 +2511,22 @@
         <v>14.5</v>
       </c>
       <c r="C80" t="n">
-        <v>1.455104654308511</v>
+        <v>1.360229084823815</v>
       </c>
       <c r="D80" t="n">
         <v>725</v>
       </c>
       <c r="E80" t="n">
-        <v>1.159364192426517</v>
+        <v>1.18018494748388</v>
       </c>
       <c r="F80" t="n">
-        <v>1.07374406989948</v>
+        <v>1.06000596976158</v>
       </c>
       <c r="G80" t="n">
-        <v>1.086992191923956</v>
+        <v>1.232044335956056</v>
       </c>
       <c r="H80" t="n">
-        <v>1.257525241897325</v>
+        <v>1.339925081283216</v>
       </c>
     </row>
     <row r="81">
@@ -2537,22 +2537,22 @@
         <v>15.5</v>
       </c>
       <c r="C81" t="n">
-        <v>1.413477808661029</v>
+        <v>1.402755946206262</v>
       </c>
       <c r="D81" t="n">
         <v>775</v>
       </c>
       <c r="E81" t="n">
-        <v>1.159364192426517</v>
+        <v>1.180472920898768</v>
       </c>
       <c r="F81" t="n">
-        <v>1.07374406989948</v>
+        <v>1.06000596976158</v>
       </c>
       <c r="G81" t="n">
-        <v>1.085756696121547</v>
+        <v>1.232044335956056</v>
       </c>
       <c r="H81" t="n">
-        <v>1.147958121047711</v>
+        <v>1.445144791040155</v>
       </c>
     </row>
     <row r="82">
@@ -2563,22 +2563,22 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905092053353014</v>
+        <v>0.9221070416444476</v>
       </c>
       <c r="D82" t="n">
         <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9500624190553694</v>
+        <v>1.006876311224994</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9506475638297064</v>
+        <v>1.000862065346007</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9236926148592638</v>
+        <v>0.9891283154162563</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9141413373720197</v>
+        <v>0.9693161012627232</v>
       </c>
     </row>
     <row r="83">
@@ -2589,22 +2589,22 @@
         <v>1.5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9620828648787331</v>
+        <v>1.018196363076672</v>
       </c>
       <c r="D83" t="n">
         <v>60</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9321197811822893</v>
+        <v>0.972745731112717</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9243216695998392</v>
+        <v>0.9412704034916441</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8925404659789448</v>
+        <v>0.9883347377550952</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8810600900508587</v>
+        <v>0.9845282695660154</v>
       </c>
     </row>
     <row r="84">
@@ -2615,22 +2615,22 @@
         <v>2.5</v>
       </c>
       <c r="C84" t="n">
-        <v>1.015393891780003</v>
+        <v>1.086681976999344</v>
       </c>
       <c r="D84" t="n">
         <v>100</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9332455372088382</v>
+        <v>0.9700429839273247</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9273108068178457</v>
+        <v>0.9418221855276837</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8991146706380913</v>
+        <v>0.9531299126156283</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8883896984060616</v>
+        <v>0.9875843656980012</v>
       </c>
     </row>
     <row r="85">
@@ -2641,22 +2641,22 @@
         <v>3.5</v>
       </c>
       <c r="C85" t="n">
-        <v>1.064560632285846</v>
+        <v>1.131317095514476</v>
       </c>
       <c r="D85" t="n">
         <v>140</v>
       </c>
       <c r="E85" t="n">
-        <v>1.024812340625359</v>
+        <v>0.9853505332352183</v>
       </c>
       <c r="F85" t="n">
-        <v>0.991525314273387</v>
+        <v>0.9493110509575962</v>
       </c>
       <c r="G85" t="n">
-        <v>1.030076002885933</v>
+        <v>1.101102214238687</v>
       </c>
       <c r="H85" t="n">
-        <v>0.936884986045022</v>
+        <v>0.9833451358922303</v>
       </c>
     </row>
     <row r="86">
@@ -2667,22 +2667,22 @@
         <v>4.5</v>
       </c>
       <c r="C86" t="n">
-        <v>1.109118584625285</v>
+        <v>1.155854930724085</v>
       </c>
       <c r="D86" t="n">
         <v>180</v>
       </c>
       <c r="E86" t="n">
-        <v>1.022074494884679</v>
+        <v>0.9881379675178384</v>
       </c>
       <c r="F86" t="n">
-        <v>0.991525314273387</v>
+        <v>0.9503275435110581</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9717065197538411</v>
+        <v>0.9318433487382358</v>
       </c>
       <c r="H86" t="n">
-        <v>1.019454306215663</v>
+        <v>0.9764797670806389</v>
       </c>
     </row>
     <row r="87">
@@ -2693,22 +2693,22 @@
         <v>5.5</v>
       </c>
       <c r="C87" t="n">
-        <v>1.148603247027343</v>
+        <v>1.164048694730183</v>
       </c>
       <c r="D87" t="n">
         <v>220</v>
       </c>
       <c r="E87" t="n">
-        <v>1.027640084843827</v>
+        <v>0.9894702494942615</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9923325483087784</v>
+        <v>0.9740818415413132</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9717065197538411</v>
+        <v>0.9502517409347179</v>
       </c>
       <c r="H87" t="n">
-        <v>1.122451550365244</v>
+        <v>0.9698214274387529</v>
       </c>
     </row>
     <row r="88">
@@ -2719,22 +2719,22 @@
         <v>6.5</v>
       </c>
       <c r="C88" t="n">
-        <v>1.182550117721041</v>
+        <v>1.159651599634786</v>
       </c>
       <c r="D88" t="n">
         <v>260</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0651315137204</v>
+        <v>1.020582899364857</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9907440355924888</v>
+        <v>1.007810172989176</v>
       </c>
       <c r="G88" t="n">
-        <v>1.004755604739158</v>
+        <v>1.017135999701634</v>
       </c>
       <c r="H88" t="n">
-        <v>1.228214994067696</v>
+        <v>0.9638638240195561</v>
       </c>
     </row>
     <row r="89">
@@ -2745,22 +2745,22 @@
         <v>7.5</v>
       </c>
       <c r="C89" t="n">
-        <v>1.210494694935403</v>
+        <v>1.146416857539906</v>
       </c>
       <c r="D89" t="n">
         <v>300</v>
       </c>
       <c r="E89" t="n">
-        <v>1.090979413305518</v>
+        <v>1.049903315399226</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9983449654070243</v>
+        <v>1.008640437453093</v>
       </c>
       <c r="G89" t="n">
-        <v>1.031874766426158</v>
+        <v>1.024217121013702</v>
       </c>
       <c r="H89" t="n">
-        <v>1.318202189090842</v>
+        <v>0.9576109676415228</v>
       </c>
     </row>
     <row r="90">
@@ -2771,22 +2771,22 @@
         <v>8.5</v>
       </c>
       <c r="C90" t="n">
-        <v>1.231972476899452</v>
+        <v>1.12809768054756</v>
       </c>
       <c r="D90" t="n">
         <v>340</v>
       </c>
       <c r="E90" t="n">
-        <v>1.100135230501687</v>
+        <v>1.085243415577461</v>
       </c>
       <c r="F90" t="n">
-        <v>1.027158061883198</v>
+        <v>1.013459256383228</v>
       </c>
       <c r="G90" t="n">
-        <v>1.076712481647587</v>
+        <v>1.098380155056941</v>
       </c>
       <c r="H90" t="n">
-        <v>1.376047150697998</v>
+        <v>0.9503494348420989</v>
       </c>
     </row>
     <row r="91">
@@ -2797,22 +2797,22 @@
         <v>9.5</v>
       </c>
       <c r="C91" t="n">
-        <v>1.246518961842209</v>
+        <v>1.108447280759761</v>
       </c>
       <c r="D91" t="n">
         <v>380</v>
       </c>
       <c r="E91" t="n">
-        <v>1.102218968713895</v>
+        <v>1.09504870423072</v>
       </c>
       <c r="F91" t="n">
-        <v>1.02805123535509</v>
+        <v>1.014754393324748</v>
       </c>
       <c r="G91" t="n">
-        <v>1.076712481647587</v>
+        <v>1.070549108028052</v>
       </c>
       <c r="H91" t="n">
-        <v>1.390020521701751</v>
+        <v>0.9434467673681968</v>
       </c>
     </row>
     <row r="92">
@@ -2823,22 +2823,22 @@
         <v>10.5</v>
       </c>
       <c r="C92" t="n">
-        <v>1.253669647992698</v>
+        <v>1.091218870278523</v>
       </c>
       <c r="D92" t="n">
         <v>420</v>
       </c>
       <c r="E92" t="n">
-        <v>1.110644469924231</v>
+        <v>1.100388915544299</v>
       </c>
       <c r="F92" t="n">
-        <v>1.048708265238138</v>
+        <v>1.023839233919791</v>
       </c>
       <c r="G92" t="n">
-        <v>1.06433265520903</v>
+        <v>1.060965093377587</v>
       </c>
       <c r="H92" t="n">
-        <v>1.354598637554292</v>
+        <v>0.9412218056852031</v>
       </c>
     </row>
     <row r="93">
@@ -2849,22 +2849,22 @@
         <v>11.5</v>
       </c>
       <c r="C93" t="n">
-        <v>1.252960033579941</v>
+        <v>1.080165661205861</v>
       </c>
       <c r="D93" t="n">
         <v>460</v>
       </c>
       <c r="E93" t="n">
-        <v>1.114528249704736</v>
+        <v>1.105395249516974</v>
       </c>
       <c r="F93" t="n">
-        <v>1.048708265238138</v>
+        <v>1.023839233919791</v>
       </c>
       <c r="G93" t="n">
-        <v>1.06433265520903</v>
+        <v>1.071484779684104</v>
       </c>
       <c r="H93" t="n">
-        <v>1.271044503530252</v>
+        <v>0.9503226917489118</v>
       </c>
     </row>
     <row r="94">
@@ -2875,22 +2875,22 @@
         <v>12.5</v>
       </c>
       <c r="C94" t="n">
-        <v>1.24392561683296</v>
+        <v>1.07904086564379</v>
       </c>
       <c r="D94" t="n">
         <v>500</v>
       </c>
       <c r="E94" t="n">
-        <v>1.137579942741793</v>
+        <v>1.108248292571368</v>
       </c>
       <c r="F94" t="n">
-        <v>1.054083549563618</v>
+        <v>1.033412537070372</v>
       </c>
       <c r="G94" t="n">
-        <v>1.082315600538698</v>
+        <v>1.071484779684104</v>
       </c>
       <c r="H94" t="n">
-        <v>1.147029169046505</v>
+        <v>0.9777118273317584</v>
       </c>
     </row>
     <row r="95">
@@ -2901,22 +2901,22 @@
         <v>13.5</v>
       </c>
       <c r="C95" t="n">
-        <v>1.226101895980779</v>
+        <v>1.091597695694322</v>
       </c>
       <c r="D95" t="n">
         <v>540</v>
       </c>
       <c r="E95" t="n">
-        <v>1.143636164570574</v>
+        <v>1.134435708023367</v>
       </c>
       <c r="F95" t="n">
-        <v>1.054083549563618</v>
+        <v>1.033412537070372</v>
       </c>
       <c r="G95" t="n">
-        <v>1.082315600538698</v>
+        <v>1.09516236207967</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9953939540438081</v>
+        <v>1.027990563242788</v>
       </c>
     </row>
     <row r="96">
@@ -2927,22 +2927,22 @@
         <v>14.5</v>
       </c>
       <c r="C96" t="n">
-        <v>1.19902436925242</v>
+        <v>1.121589363459472</v>
       </c>
       <c r="D96" t="n">
         <v>580</v>
       </c>
       <c r="E96" t="n">
-        <v>1.152910560083902</v>
+        <v>1.145352023071857</v>
       </c>
       <c r="F96" t="n">
-        <v>1.07566831527572</v>
+        <v>1.023481447698523</v>
       </c>
       <c r="G96" t="n">
-        <v>1.074541425074382</v>
+        <v>1.1156784215466</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8322193622454946</v>
+        <v>1.101114670922305</v>
       </c>
     </row>
     <row r="97">
@@ -2953,22 +2953,22 @@
         <v>15.5</v>
       </c>
       <c r="C97" t="n">
-        <v>1.162228534876906</v>
+        <v>1.172769081041257</v>
       </c>
       <c r="D97" t="n">
         <v>620</v>
       </c>
       <c r="E97" t="n">
-        <v>1.157436929872643</v>
+        <v>1.144923092277586</v>
       </c>
       <c r="F97" t="n">
-        <v>1.07566831527572</v>
+        <v>1.023481447698523</v>
       </c>
       <c r="G97" t="n">
-        <v>1.075400819439388</v>
+        <v>1.112311273548879</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6744557512405798</v>
+        <v>1.191422085303336</v>
       </c>
     </row>
     <row r="98">
@@ -2979,22 +2979,22 @@
         <v>0.5</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7785878460475146</v>
+        <v>0.8001984684682196</v>
       </c>
       <c r="D98" t="n">
         <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9519203310371929</v>
+        <v>1.008520265403603</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9506475638297064</v>
+        <v>1.000862065346007</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9236926148592638</v>
+        <v>0.9937443315412094</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9478652398318701</v>
+        <v>0.9744592586755667</v>
       </c>
     </row>
     <row r="99">
@@ -3005,22 +3005,22 @@
         <v>1.5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8170256914357071</v>
+        <v>0.8766441047510719</v>
       </c>
       <c r="D99" t="n">
         <v>45</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9295714395719326</v>
+        <v>0.9751623617114985</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9243216695998392</v>
+        <v>0.9412704034916441</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9121139720003786</v>
+        <v>0.9713032031738353</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8922632431976347</v>
+        <v>0.9452937069831004</v>
       </c>
     </row>
     <row r="100">
@@ -3031,22 +3031,22 @@
         <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.853357367649664</v>
+        <v>0.9274676471958547</v>
       </c>
       <c r="D100" t="n">
         <v>75</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9190449916518452</v>
+        <v>0.970469646740925</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9218438817460882</v>
+        <v>0.9418221855276837</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8150161573720756</v>
+        <v>0.9397537418579194</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8822386733499115</v>
+        <v>0.9255591553877944</v>
       </c>
     </row>
     <row r="101">
@@ -3057,22 +3057,22 @@
         <v>3.5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.887118372918408</v>
+        <v>0.9564223079045835</v>
       </c>
       <c r="D101" t="n">
         <v>105</v>
       </c>
       <c r="E101" t="n">
-        <v>0.937591741495596</v>
+        <v>0.9753285085890731</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9868395852108999</v>
+        <v>0.9493110509575962</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9012550106823095</v>
+        <v>0.9531299126156283</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9192029491620133</v>
+        <v>0.9207969711550326</v>
       </c>
     </row>
     <row r="102">
@@ -3083,22 +3083,22 @@
         <v>4.5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.917844205470961</v>
+        <v>0.9672612989792713</v>
       </c>
       <c r="D102" t="n">
         <v>135</v>
       </c>
       <c r="E102" t="n">
-        <v>1.024812340625359</v>
+        <v>0.983541901910244</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9868395852108999</v>
+        <v>0.9503275435110581</v>
       </c>
       <c r="G102" t="n">
-        <v>1.030076002885933</v>
+        <v>1.101102214238687</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9951783411381335</v>
+        <v>0.9319334893942277</v>
       </c>
     </row>
     <row r="103">
@@ -3109,22 +3109,22 @@
         <v>5.5</v>
       </c>
       <c r="C103" t="n">
-        <v>0.945070363536346</v>
+        <v>0.9637378325219328</v>
       </c>
       <c r="D103" t="n">
         <v>165</v>
       </c>
       <c r="E103" t="n">
-        <v>1.024001035885593</v>
+        <v>0.9938719107821758</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9876468192462913</v>
+        <v>0.9740818415413132</v>
       </c>
       <c r="G103" t="n">
-        <v>1.030076002885933</v>
+        <v>0.9318433487382358</v>
       </c>
       <c r="H103" t="n">
-        <v>1.094327271895105</v>
+        <v>0.9546408884507076</v>
       </c>
     </row>
     <row r="104">
@@ -3135,22 +3135,22 @@
         <v>6.5</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9683323453435858</v>
+        <v>0.9496051206345837</v>
       </c>
       <c r="D104" t="n">
         <v>195</v>
       </c>
       <c r="E104" t="n">
-        <v>1.020948847489013</v>
+        <v>0.9975002676589944</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9860583065300017</v>
+        <v>1.007810172989176</v>
       </c>
       <c r="G104" t="n">
-        <v>1.015321448738815</v>
+        <v>0.9645756533853322</v>
       </c>
       <c r="H104" t="n">
-        <v>1.196006572400727</v>
+        <v>0.980567173108962</v>
       </c>
     </row>
     <row r="105">
@@ -3161,22 +3161,22 @@
         <v>7.5</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9871656491217028</v>
+        <v>0.928616375419236</v>
       </c>
       <c r="D105" t="n">
         <v>225</v>
       </c>
       <c r="E105" t="n">
-        <v>1.02404967008384</v>
+        <v>1.012149450485066</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9936592363445372</v>
+        <v>1.008640437453093</v>
       </c>
       <c r="G105" t="n">
-        <v>1.015321448738815</v>
+        <v>1.017135999701634</v>
       </c>
       <c r="H105" t="n">
-        <v>1.278556945269505</v>
+        <v>1.000158450204651</v>
       </c>
     </row>
     <row r="106">
@@ -3187,22 +3187,22 @@
         <v>8.5</v>
       </c>
       <c r="C106" t="n">
-        <v>1.00110577309972</v>
+        <v>0.9045248089779057</v>
       </c>
       <c r="D106" t="n">
         <v>255</v>
       </c>
       <c r="E106" t="n">
-        <v>1.070721460789042</v>
+        <v>1.019493669858991</v>
       </c>
       <c r="F106" t="n">
-        <v>1.021464189746607</v>
+        <v>1.013459256383228</v>
       </c>
       <c r="G106" t="n">
-        <v>1.044512489511073</v>
+        <v>1.017135999701634</v>
       </c>
       <c r="H106" t="n">
-        <v>1.323006321633484</v>
+        <v>1.006136617425989</v>
       </c>
     </row>
     <row r="107">
@@ -3213,22 +3213,22 @@
         <v>9.5</v>
       </c>
       <c r="C107" t="n">
-        <v>1.009688215506659</v>
+        <v>0.8810836334126064</v>
       </c>
       <c r="D107" t="n">
         <v>285</v>
       </c>
       <c r="E107" t="n">
-        <v>1.10200601438586</v>
+        <v>1.04912637781486</v>
       </c>
       <c r="F107" t="n">
-        <v>1.022357363218499</v>
+        <v>1.014754393324748</v>
       </c>
       <c r="G107" t="n">
-        <v>1.071631651198074</v>
+        <v>1.024217121013702</v>
       </c>
       <c r="H107" t="n">
-        <v>1.31605067858108</v>
+        <v>0.9963654278236986</v>
       </c>
     </row>
     <row r="108">
@@ -3239,22 +3239,22 @@
         <v>10.5</v>
       </c>
       <c r="C108" t="n">
-        <v>1.012448474571543</v>
+        <v>0.8620460608253531</v>
       </c>
       <c r="D108" t="n">
         <v>315</v>
       </c>
       <c r="E108" t="n">
-        <v>1.107858530901844</v>
+        <v>1.063073575074167</v>
       </c>
       <c r="F108" t="n">
-        <v>1.043014393101547</v>
+        <v>1.023839233919791</v>
       </c>
       <c r="G108" t="n">
-        <v>1.04868598075986</v>
+        <v>1.038385717181909</v>
       </c>
       <c r="H108" t="n">
-        <v>1.251947285627238</v>
+        <v>0.9750025663252244</v>
       </c>
     </row>
     <row r="109">
@@ -3265,22 +3265,22 @@
         <v>11.5</v>
       </c>
       <c r="C109" t="n">
-        <v>1.008922048523396</v>
+        <v>0.8511653033181588</v>
       </c>
       <c r="D109" t="n">
         <v>345</v>
       </c>
       <c r="E109" t="n">
-        <v>1.108234138202473</v>
+        <v>1.090942483979519</v>
       </c>
       <c r="F109" t="n">
-        <v>1.043014393101547</v>
+        <v>1.023839233919791</v>
       </c>
       <c r="G109" t="n">
-        <v>1.06433265520903</v>
+        <v>1.060064565293749</v>
       </c>
       <c r="H109" t="n">
-        <v>1.133193349538357</v>
+        <v>0.951448908869589</v>
       </c>
     </row>
     <row r="110">
@@ -3291,22 +3291,22 @@
         <v>12.5</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9986444355912381</v>
+        <v>0.852194572993039</v>
       </c>
       <c r="D110" t="n">
         <v>375</v>
       </c>
       <c r="E110" t="n">
-        <v>1.109889261751895</v>
+        <v>1.097274358002995</v>
       </c>
       <c r="F110" t="n">
-        <v>1.048389677427027</v>
+        <v>1.033412537070372</v>
       </c>
       <c r="G110" t="n">
-        <v>1.06433265520903</v>
+        <v>1.060064565293749</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9700162410632173</v>
+        <v>0.9374246587578949</v>
       </c>
     </row>
     <row r="111">
@@ -3317,22 +3317,22 @@
         <v>13.5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.981151134004093</v>
+        <v>0.8688870819520067</v>
       </c>
       <c r="D111" t="n">
         <v>405</v>
       </c>
       <c r="E111" t="n">
-        <v>1.112408028788716</v>
+        <v>1.09890584152382</v>
       </c>
       <c r="F111" t="n">
-        <v>1.048389677427027</v>
+        <v>1.033412537070372</v>
       </c>
       <c r="G111" t="n">
-        <v>1.06433265520903</v>
+        <v>1.060965093377587</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7787935721703869</v>
+        <v>0.9431915871143999</v>
       </c>
     </row>
     <row r="112">
@@ -3343,22 +3343,22 @@
         <v>14.5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9559776419909838</v>
+        <v>0.9049960422970779</v>
       </c>
       <c r="D112" t="n">
         <v>435</v>
       </c>
       <c r="E112" t="n">
-        <v>1.120298377467482</v>
+        <v>1.095405003178514</v>
       </c>
       <c r="F112" t="n">
-        <v>1.069809966280961</v>
+        <v>1.023481447698523</v>
       </c>
       <c r="G112" t="n">
-        <v>1.056558479744714</v>
+        <v>1.059446170450713</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5796096898383576</v>
+        <v>0.9742269910971761</v>
       </c>
     </row>
     <row r="113">
@@ -3369,22 +3369,22 @@
         <v>15.5</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9226594577809326</v>
+        <v>0.9642746661302657</v>
       </c>
       <c r="D113" t="n">
         <v>465</v>
       </c>
       <c r="E113" t="n">
-        <v>1.140010471759096</v>
+        <v>1.097389177019776</v>
       </c>
       <c r="F113" t="n">
-        <v>1.069809966280961</v>
+        <v>1.023481447698523</v>
       </c>
       <c r="G113" t="n">
-        <v>1.074541425074382</v>
+        <v>1.06996585675723</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3932745475050295</v>
+        <v>1.029442348144706</v>
       </c>
     </row>
     <row r="114">
@@ -3395,22 +3395,22 @@
         <v>0.5</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7235554479139438</v>
+        <v>0.7462495315584529</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9445591115328569</v>
+        <v>0.9873822541404413</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9498704847353449</v>
+        <v>0.9987538091779278</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9236926148592638</v>
+        <v>0.9781423819931826</v>
       </c>
       <c r="H114" t="n">
-        <v>1.009703376999122</v>
+        <v>1.01080869930298</v>
       </c>
     </row>
     <row r="115">
@@ -3421,22 +3421,22 @@
         <v>1.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7420869660581072</v>
+        <v>0.8024975327440008</v>
       </c>
       <c r="D115" t="n">
         <v>30</v>
       </c>
       <c r="E115" t="n">
-        <v>0.931359762047843</v>
+        <v>0.9484536170727481</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9284729595415968</v>
+        <v>0.9418711957328878</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9057434874315372</v>
+        <v>0.909293333607626</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9506680880734157</v>
+        <v>0.9551603953795555</v>
       </c>
     </row>
     <row r="116">
@@ -3447,22 +3447,22 @@
         <v>2.5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7600859304782477</v>
+        <v>0.8351050537629638</v>
       </c>
       <c r="D116" t="n">
         <v>50</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8812074053776022</v>
+        <v>0.9620717560406417</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9128244398573143</v>
+        <v>0.9394508200875168</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7931885464398386</v>
+        <v>0.9419919221063118</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9332841019825157</v>
+        <v>0.9239786219873376</v>
       </c>
     </row>
     <row r="117">
@@ -3473,22 +3473,22 @@
         <v>3.5</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7770878394033893</v>
+        <v>0.8478253067173569</v>
       </c>
       <c r="D117" t="n">
         <v>70</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9047621944654385</v>
+        <v>0.9682052475718701</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9762602176918581</v>
+        <v>0.9469396855174291</v>
       </c>
       <c r="G117" t="n">
-        <v>0.8161723809977715</v>
+        <v>0.9397537418579194</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9589123973641061</v>
+        <v>0.9230856493869859</v>
       </c>
     </row>
     <row r="118">
@@ -3499,22 +3499,22 @@
         <v>4.5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7926281910625534</v>
+        <v>0.844411503709193</v>
       </c>
       <c r="D118" t="n">
         <v>90</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9211929057217436</v>
+        <v>0.9719894755834197</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9762602176918581</v>
+        <v>0.9479561780708911</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8997688757696162</v>
+        <v>0.9531299126156283</v>
       </c>
       <c r="H118" t="n">
-        <v>1.020014291901293</v>
+        <v>0.9506399095101945</v>
       </c>
     </row>
     <row r="119">
@@ -3525,22 +3525,22 @@
         <v>5.5</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8062424836847633</v>
+        <v>0.8286168568404875</v>
       </c>
       <c r="D119" t="n">
         <v>110</v>
       </c>
       <c r="E119" t="n">
-        <v>0.926937593939243</v>
+        <v>0.9785319169796007</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9792356937357924</v>
+        <v>0.9712956970358256</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8997688757696162</v>
+        <v>0.9661014928209802</v>
       </c>
       <c r="H119" t="n">
-        <v>1.101701478509688</v>
+        <v>0.9972116893759719</v>
       </c>
     </row>
     <row r="120">
@@ -3551,22 +3551,22 @@
         <v>6.5</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8174662154990412</v>
+        <v>0.8041945782132541</v>
       </c>
       <c r="D120" t="n">
         <v>130</v>
       </c>
       <c r="E120" t="n">
-        <v>0.987357102099479</v>
+        <v>0.9917903071885856</v>
       </c>
       <c r="F120" t="n">
-        <v>0.979008301647632</v>
+        <v>1.005268593261216</v>
       </c>
       <c r="G120" t="n">
-        <v>1.034989925073707</v>
+        <v>1.11405927285317</v>
       </c>
       <c r="H120" t="n">
-        <v>1.184697924556001</v>
+        <v>1.048199966563659</v>
       </c>
     </row>
     <row r="121">
@@ -3577,22 +3577,22 @@
         <v>7.5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.82583488473441</v>
+        <v>0.7748978799295073</v>
       </c>
       <c r="D121" t="n">
         <v>150</v>
       </c>
       <c r="E121" t="n">
-        <v>1.017392508806612</v>
+        <v>0.9945743884988237</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9866810368743555</v>
+        <v>1.006098857725134</v>
       </c>
       <c r="G121" t="n">
-        <v>1.051155269382601</v>
+        <v>1.11405927285317</v>
       </c>
       <c r="H121" t="n">
-        <v>1.248928985234483</v>
+        <v>1.08797856025753</v>
       </c>
     </row>
     <row r="122">
@@ -3603,22 +3603,22 @@
         <v>8.5</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8308839896198923</v>
+        <v>0.7444799740912618</v>
       </c>
       <c r="D122" t="n">
         <v>170</v>
       </c>
       <c r="E122" t="n">
-        <v>1.020115110333456</v>
+        <v>0.9981877254550455</v>
       </c>
       <c r="F122" t="n">
-        <v>1.017477233492598</v>
+        <v>1.010917676655269</v>
       </c>
       <c r="G122" t="n">
-        <v>1.08034631015486</v>
+        <v>0.9461672611888502</v>
       </c>
       <c r="H122" t="n">
-        <v>1.276958717549209</v>
+        <v>1.104505842832548</v>
       </c>
     </row>
     <row r="123">
@@ -3629,22 +3629,22 @@
         <v>9.5</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8321490283845103</v>
+        <v>0.7166940728005311</v>
       </c>
       <c r="D123" t="n">
         <v>190</v>
       </c>
       <c r="E123" t="n">
-        <v>1.019151901148474</v>
+        <v>0.9938900932767325</v>
       </c>
       <c r="F123" t="n">
-        <v>1.018370406964489</v>
+        <v>1.012212813596789</v>
       </c>
       <c r="G123" t="n">
-        <v>1.044512489511073</v>
+        <v>0.9645756533853322</v>
       </c>
       <c r="H123" t="n">
-        <v>1.256707447071997</v>
+        <v>1.0929056981113</v>
       </c>
     </row>
     <row r="124">
@@ -3655,22 +3655,22 @@
         <v>10.5</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8291654992572871</v>
+        <v>0.6952933881593301</v>
       </c>
       <c r="D124" t="n">
         <v>210</v>
       </c>
       <c r="E124" t="n">
-        <v>1.028175704014479</v>
+        <v>0.9812652633283387</v>
       </c>
       <c r="F124" t="n">
-        <v>1.040586536787224</v>
+        <v>1.021893271998175</v>
       </c>
       <c r="G124" t="n">
-        <v>1.008065057775785</v>
+        <v>0.9360660410125388</v>
       </c>
       <c r="H124" t="n">
-        <v>1.183156113174598</v>
+        <v>1.056841115145862</v>
       </c>
     </row>
     <row r="125">
@@ -3681,22 +3681,22 @@
         <v>11.5</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8214689004672453</v>
+        <v>0.6840311322696724</v>
       </c>
       <c r="D125" t="n">
         <v>230</v>
       </c>
       <c r="E125" t="n">
-        <v>1.027496529549532</v>
+        <v>0.9988150784520136</v>
       </c>
       <c r="F125" t="n">
-        <v>1.040586536787224</v>
+        <v>1.021893271998175</v>
       </c>
       <c r="G125" t="n">
-        <v>1.008065057775785</v>
+        <v>1.004781084489175</v>
       </c>
       <c r="H125" t="n">
-        <v>1.058959168318209</v>
+        <v>1.007250643740564</v>
       </c>
     </row>
     <row r="126">
@@ -3707,22 +3707,22 @@
         <v>12.5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8085947302434073</v>
+        <v>0.686660517233573</v>
       </c>
       <c r="D126" t="n">
         <v>250</v>
       </c>
       <c r="E126" t="n">
-        <v>1.075446889350946</v>
+        <v>1.00144065402525</v>
       </c>
       <c r="F126" t="n">
-        <v>1.046055289119522</v>
+        <v>1.031466575148756</v>
       </c>
       <c r="G126" t="n">
-        <v>1.008065057775785</v>
+        <v>1.006651456967332</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8940009263699658</v>
+        <v>0.9589176036384468</v>
       </c>
     </row>
     <row r="127">
@@ -3733,22 +3733,22 @@
         <v>13.5</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7900784868147959</v>
+        <v>0.7069347551530465</v>
       </c>
       <c r="D127" t="n">
         <v>270</v>
       </c>
       <c r="E127" t="n">
-        <v>1.075446889350946</v>
+        <v>1.031877666691172</v>
       </c>
       <c r="F127" t="n">
-        <v>1.046055289119522</v>
+        <v>1.031466575148756</v>
       </c>
       <c r="G127" t="n">
-        <v>1.008065057775785</v>
+        <v>1.0137325782794</v>
       </c>
       <c r="H127" t="n">
-        <v>0.7039808388933556</v>
+        <v>0.9260493113149919</v>
       </c>
     </row>
     <row r="128">
@@ -3759,22 +3759,22 @@
         <v>14.5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7654556684104332</v>
+        <v>0.7486070581301066</v>
       </c>
       <c r="D128" t="n">
         <v>290</v>
       </c>
       <c r="E128" t="n">
-        <v>1.113450802959878</v>
+        <v>1.033642540128125</v>
       </c>
       <c r="F128" t="n">
-        <v>1.069038763534678</v>
+        <v>1.021535485776907</v>
       </c>
       <c r="G128" t="n">
-        <v>1.040911805295544</v>
+        <v>1.012213655352526</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5081745961344449</v>
+        <v>0.9183022561423431</v>
       </c>
     </row>
     <row r="129">
@@ -3785,22 +3785,22 @@
         <v>15.5</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7342617732593422</v>
+        <v>0.8154306382667666</v>
       </c>
       <c r="D129" t="n">
         <v>310</v>
       </c>
       <c r="E129" t="n">
-        <v>1.113450802959878</v>
+        <v>1.052970703003262</v>
       </c>
       <c r="F129" t="n">
-        <v>1.069038763534678</v>
+        <v>1.021535485776907</v>
       </c>
       <c r="G129" t="n">
-        <v>1.040911805295544</v>
+        <v>1.036866794255035</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3266340393488489</v>
+        <v>0.9384320916432469</v>
       </c>
     </row>
     <row r="130">
@@ -3811,22 +3811,22 @@
         <v>0.5</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7794860548385347</v>
+        <v>0.7984181677086236</v>
       </c>
       <c r="D130" t="n">
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9596120534116608</v>
+        <v>0.9672891246940863</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9636863508197661</v>
+        <v>0.9656849877428513</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9495870267047478</v>
+        <v>0.9546033000522038</v>
       </c>
       <c r="H130" t="n">
-        <v>1.022447171819285</v>
+        <v>1.012570451799406</v>
       </c>
     </row>
     <row r="131">
@@ -3837,22 +3837,22 @@
         <v>1.5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7767578846321647</v>
+        <v>0.8339145838489362</v>
       </c>
       <c r="D131" t="n">
         <v>15</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9545263134174296</v>
+        <v>0.9793309966400319</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9902106387263183</v>
+        <v>0.9756564503295584</v>
       </c>
       <c r="G131" t="n">
-        <v>1.024805022223399</v>
+        <v>1.056289663781305</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9607930281510735</v>
+        <v>0.9347052136165086</v>
       </c>
     </row>
     <row r="132">
@@ -3863,22 +3863,22 @@
         <v>2.5</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7750707761519866</v>
+        <v>0.8477521334941487</v>
       </c>
       <c r="D132" t="n">
         <v>25</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8568614335886204</v>
+        <v>0.8706921081202379</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8557963700296233</v>
+        <v>0.8508421163681448</v>
       </c>
       <c r="G132" t="n">
-        <v>0.8627921115917571</v>
+        <v>0.8192797342717629</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9317980778618153</v>
+        <v>0.8882577398880289</v>
       </c>
     </row>
     <row r="133">
@@ -3889,22 +3889,22 @@
         <v>3.5</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7739602276270223</v>
+        <v>0.8436840287462737</v>
       </c>
       <c r="D133" t="n">
         <v>35</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8525768963934396</v>
+        <v>0.8940581521155752</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8495631650626494</v>
+        <v>0.8524897263522203</v>
       </c>
       <c r="G133" t="n">
-        <v>0.7998109333461044</v>
+        <v>0.8194159577302013</v>
       </c>
       <c r="H133" t="n">
-        <v>0.937309981277032</v>
+        <v>0.8797392937223472</v>
       </c>
     </row>
     <row r="134">
@@ -3915,22 +3915,22 @@
         <v>4.5</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7729617372862947</v>
+        <v>0.8254634817073274</v>
       </c>
       <c r="D134" t="n">
         <v>45</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8522315231277888</v>
+        <v>0.9076078316481415</v>
       </c>
       <c r="F134" t="n">
-        <v>0.8489680214552012</v>
+        <v>0.8475044976112308</v>
       </c>
       <c r="G134" t="n">
-        <v>0.8048218817775541</v>
+        <v>0.8508401243055735</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9720003192385591</v>
+        <v>0.9066637509565134</v>
       </c>
     </row>
     <row r="135">
@@ -3941,22 +3941,22 @@
         <v>5.5</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7716108033588258</v>
+        <v>0.7968437044793227</v>
       </c>
       <c r="D135" t="n">
         <v>55</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8734398795616279</v>
+        <v>0.9242954349755335</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8572828184332165</v>
+        <v>0.8846698736434067</v>
       </c>
       <c r="G135" t="n">
-        <v>0.7942976349257764</v>
+        <v>0.8765172493224921</v>
       </c>
       <c r="H135" t="n">
-        <v>1.024650808240067</v>
+        <v>0.9579173994486392</v>
       </c>
     </row>
     <row r="136">
@@ -3967,22 +3967,22 @@
         <v>6.5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.769442924073639</v>
+        <v>0.7615779091642741</v>
       </c>
       <c r="D136" t="n">
         <v>65</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8998789629522004</v>
+        <v>0.9241542407355519</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8792405857005819</v>
+        <v>0.8846643361241369</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8728720027075054</v>
+        <v>0.9183038930452144</v>
       </c>
       <c r="H136" t="n">
-        <v>1.080528635834196</v>
+        <v>1.016623982116845</v>
       </c>
     </row>
     <row r="137">
@@ -3993,22 +3993,22 @@
         <v>7.5</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7659935976597568</v>
+        <v>0.7234193078641967</v>
       </c>
       <c r="D137" t="n">
         <v>75</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8984010015657238</v>
+        <v>0.9403305464742003</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8774662934971735</v>
+        <v>0.883117201469006</v>
       </c>
       <c r="G137" t="n">
-        <v>0.8728720027075054</v>
+        <v>0.9200800837166565</v>
       </c>
       <c r="H137" t="n">
-        <v>1.124185929923814</v>
+        <v>1.064750660932764</v>
       </c>
     </row>
     <row r="138">
@@ -4019,22 +4019,22 @@
         <v>8.5</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7607983223462012</v>
+        <v>0.6861211126811038</v>
       </c>
       <c r="D138" t="n">
         <v>85</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8971166409295417</v>
+        <v>0.9387611273952836</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8800163718448725</v>
+        <v>0.8851930710284551</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9293322672847082</v>
+        <v>0.9336713319879169</v>
       </c>
       <c r="H138" t="n">
-        <v>1.142069882764172</v>
+        <v>1.088083471521308</v>
       </c>
     </row>
     <row r="139">
@@ -4045,22 +4045,22 @@
         <v>9.5</v>
       </c>
       <c r="C139" t="n">
-        <v>0.753392596361995</v>
+        <v>0.6534365357170107</v>
       </c>
       <c r="D139" t="n">
         <v>95</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9052414329049934</v>
+        <v>0.9377149035286876</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8800163718448725</v>
+        <v>0.8833638910514011</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9442731308633288</v>
+        <v>0.9336713319879169</v>
       </c>
       <c r="H139" t="n">
-        <v>1.124545528244562</v>
+        <v>1.080040866785569</v>
       </c>
     </row>
     <row r="140">
@@ -4071,22 +4071,22 @@
         <v>10.5</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7433119179361615</v>
+        <v>0.6291187890739308</v>
       </c>
       <c r="D140" t="n">
         <v>105</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8912955801291975</v>
+        <v>0.9183157092428715</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8839664788644691</v>
+        <v>0.8567361482256323</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8807859745914519</v>
+        <v>0.8723181111243071</v>
       </c>
       <c r="H140" t="n">
-        <v>1.067173304241874</v>
+        <v>1.043167588894839</v>
       </c>
     </row>
     <row r="141">
@@ -4097,22 +4097,22 @@
         <v>11.5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7300917852977227</v>
+        <v>0.6169210848538789</v>
       </c>
       <c r="D141" t="n">
         <v>115</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9364506425587136</v>
+        <v>0.9228155710219478</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8839664788644691</v>
+        <v>0.8567361482256323</v>
       </c>
       <c r="G141" t="n">
-        <v>1.006733680547362</v>
+        <v>1.015529764017223</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9712375559484057</v>
+        <v>0.9879260390892735</v>
       </c>
     </row>
     <row r="142">
@@ -4123,22 +4123,22 @@
         <v>12.5</v>
       </c>
       <c r="C142" t="n">
-        <v>0.713267696675701</v>
+        <v>0.6205966351588686</v>
       </c>
       <c r="D142" t="n">
         <v>125</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9528865728634867</v>
+        <v>0.9138774237696647</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8918695369480341</v>
+        <v>0.8395778144830203</v>
       </c>
       <c r="G142" t="n">
-        <v>1.006733680547362</v>
+        <v>1.013665980911335</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8435631780105999</v>
+        <v>0.9292892612006924</v>
       </c>
     </row>
     <row r="143">
@@ -4149,22 +4149,22 @@
         <v>13.5</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6923751502991191</v>
+        <v>0.6438986520909153</v>
       </c>
       <c r="D143" t="n">
         <v>135</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9911443907801716</v>
+        <v>0.9141365404101366</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8918695369480341</v>
+        <v>0.8395778144830203</v>
       </c>
       <c r="G143" t="n">
-        <v>1.022575624500421</v>
+        <v>1.013665980911335</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6956409396933625</v>
+        <v>0.8823125900773285</v>
       </c>
     </row>
     <row r="144">
@@ -4175,22 +4175,22 @@
         <v>14.5</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6669496443970004</v>
+        <v>0.6905803477520321</v>
       </c>
       <c r="D144" t="n">
         <v>145</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9937454867162369</v>
+        <v>0.9065155829076817</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9270588345880343</v>
+        <v>0.8324416213359362</v>
       </c>
       <c r="G144" t="n">
-        <v>1.012472597731236</v>
+        <v>1.010842377499221</v>
       </c>
       <c r="H144" t="n">
-        <v>0.5420936109056134</v>
+        <v>0.8580905724976198</v>
       </c>
     </row>
     <row r="145">
@@ -4201,22 +4201,22 @@
         <v>15.5</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6365266771983666</v>
+        <v>0.7643949342442351</v>
       </c>
       <c r="D145" t="n">
         <v>155</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9974243563312447</v>
+        <v>0.9123231669068066</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9270588345880343</v>
+        <v>0.8324416213359362</v>
       </c>
       <c r="G145" t="n">
-        <v>1.012472597731236</v>
+        <v>0.8429503658349001</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3986068148701081</v>
+        <v>0.8612456660330272</v>
       </c>
     </row>
     <row r="146">
@@ -4227,22 +4227,22 @@
         <v>0.5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9858708627075179</v>
+        <v>0.9948623137122045</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9596120534116608</v>
+        <v>0.9672891246940863</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9636863508197661</v>
+        <v>0.9656849877428513</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9495870267047478</v>
+        <v>0.9546033000522038</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9551101565292519</v>
+        <v>0.9516803110424235</v>
       </c>
     </row>
     <row r="147">
@@ -4253,22 +4253,22 @@
         <v>1.5</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9605296430441123</v>
+        <v>1.009053194859351</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.981261629465869</v>
+        <v>0.9787871743851018</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9902106387263183</v>
+        <v>0.9756564503295584</v>
       </c>
       <c r="G147" t="n">
-        <v>1.046805682864906</v>
+        <v>1.042775552239888</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8826161198068211</v>
+        <v>0.8495730211206109</v>
       </c>
     </row>
     <row r="148">
@@ -4279,22 +4279,22 @@
         <v>2.5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9378031005571119</v>
+        <v>1.00356682318288</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8572428827046016</v>
+        <v>0.8656159180964165</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8557963700296233</v>
+        <v>0.8508421163681448</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8062029438708035</v>
+        <v>0.8082507325025712</v>
       </c>
       <c r="H148" t="n">
-        <v>0.8330700311959827</v>
+        <v>0.7787595866949402</v>
       </c>
     </row>
     <row r="149">
@@ -4305,22 +4305,22 @@
         <v>3.5</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9172267334755391</v>
+        <v>0.9821564107848075</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8393834913335395</v>
+        <v>0.865547221876352</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8495631650626494</v>
+        <v>0.8524897263522203</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8159424627524893</v>
+        <v>0.8082507325025712</v>
       </c>
       <c r="H149" t="n">
-        <v>0.809756825305183</v>
+        <v>0.7470144378794914</v>
       </c>
     </row>
     <row r="150">
@@ -4331,22 +4331,22 @@
         <v>4.5</v>
       </c>
       <c r="C150" t="n">
-        <v>0.8983360400284164</v>
+        <v>0.9485751697671467</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8390264051690707</v>
+        <v>0.8630178019805639</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8489680214552012</v>
+        <v>0.8475044976112308</v>
       </c>
       <c r="G150" t="n">
-        <v>0.8159424627524893</v>
+        <v>0.8082507325025712</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8108101141837665</v>
+        <v>0.7533132434592198</v>
       </c>
     </row>
     <row r="151">
@@ -4357,22 +4357,22 @@
         <v>5.5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8806665184447662</v>
+        <v>0.906576312231911</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8498454917309071</v>
+        <v>0.887121329478644</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8572828184332165</v>
+        <v>0.8846698736434067</v>
       </c>
       <c r="G151" t="n">
-        <v>0.8159424627524893</v>
+        <v>0.8227964465101043</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8300128028696032</v>
+        <v>0.7881188575461002</v>
       </c>
     </row>
     <row r="152">
@@ -4383,22 +4383,22 @@
         <v>6.5</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8637536669536113</v>
+        <v>0.8599130502811168</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.872658222451751</v>
+        <v>0.8815069326530867</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8792405857005819</v>
+        <v>0.8846643361241369</v>
       </c>
       <c r="G152" t="n">
-        <v>0.8825029740005078</v>
+        <v>0.8784347733791312</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8583462068522394</v>
+        <v>0.8360300946481174</v>
       </c>
     </row>
     <row r="153">
@@ -4409,22 +4409,22 @@
         <v>7.5</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8471329837839746</v>
+        <v>0.8123385960167769</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8716169104042225</v>
+        <v>0.8778279054313691</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8774662934971735</v>
+        <v>0.883117201469006</v>
       </c>
       <c r="G153" t="n">
-        <v>0.8825029740005078</v>
+        <v>0.8784347733791312</v>
       </c>
       <c r="H153" t="n">
-        <v>0.8858012160248994</v>
+        <v>0.8800661755166286</v>
       </c>
     </row>
     <row r="154">
@@ -4435,22 +4435,22 @@
         <v>8.5</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8303399671648783</v>
+        <v>0.7676061615409064</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8661494018821335</v>
+        <v>0.876468898691968</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8800163718448725</v>
+        <v>0.8851930710284551</v>
       </c>
       <c r="G154" t="n">
-        <v>0.8825029740005078</v>
+        <v>0.8784347733791312</v>
       </c>
       <c r="H154" t="n">
-        <v>0.9030401304457958</v>
+        <v>0.9063082507158522</v>
       </c>
     </row>
     <row r="155">
@@ -4461,22 +4461,22 @@
         <v>9.5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8129101153253449</v>
+        <v>0.7294689589555181</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.8661494018821335</v>
+        <v>0.8727424265293178</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8800163718448725</v>
+        <v>0.8833638910514011</v>
       </c>
       <c r="G155" t="n">
-        <v>0.8825029740005078</v>
+        <v>0.8784347733791312</v>
       </c>
       <c r="H155" t="n">
-        <v>0.902687712569092</v>
+        <v>0.9074949099027809</v>
       </c>
     </row>
     <row r="156">
@@ -4487,22 +4487,22 @@
         <v>10.5</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7943789264943976</v>
+        <v>0.7016802003626285</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.842421198652101</v>
+        <v>0.8385688943512963</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8839664788644691</v>
+        <v>0.8567361482256323</v>
       </c>
       <c r="G156" t="n">
-        <v>0.8160685839637984</v>
+        <v>0.8119437636750253</v>
       </c>
       <c r="H156" t="n">
-        <v>0.8802126327768482</v>
+        <v>0.8845246181021875</v>
       </c>
     </row>
     <row r="157">
@@ -4513,22 +4513,22 @@
         <v>11.5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7742818989010585</v>
+        <v>0.6879930978642503</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.842421198652101</v>
+        <v>0.8385688943512963</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8839664788644691</v>
+        <v>0.8567361482256323</v>
       </c>
       <c r="G157" t="n">
-        <v>0.8160685839637984</v>
+        <v>0.8119437636750253</v>
       </c>
       <c r="H157" t="n">
-        <v>0.8344456354785268</v>
+        <v>0.8455231071132485</v>
       </c>
     </row>
     <row r="158">
@@ -4539,22 +4539,22 @@
         <v>12.5</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7521545307743505</v>
+        <v>0.6921608635623987</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8447921160771705</v>
+        <v>0.8207265899867509</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8918695369480341</v>
+        <v>0.8395778144830203</v>
       </c>
       <c r="G158" t="n">
-        <v>0.8160685839637984</v>
+        <v>0.8119437636750253</v>
       </c>
       <c r="H158" t="n">
-        <v>0.767756550623766</v>
+        <v>0.8029247694594228</v>
       </c>
     </row>
     <row r="159">
@@ -4565,22 +4565,22 @@
         <v>13.5</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7275323203432957</v>
+        <v>0.7179367095590867</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8447921160771705</v>
+        <v>0.8207265899867509</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8918695369480341</v>
+        <v>0.8395778144830203</v>
       </c>
       <c r="G159" t="n">
-        <v>0.8160685839637984</v>
+        <v>0.8119437636750253</v>
       </c>
       <c r="H159" t="n">
-        <v>0.6858407494282175</v>
+        <v>0.7696080900799087</v>
       </c>
     </row>
     <row r="160">
@@ -4591,22 +4591,22 @@
         <v>14.5</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6999507658369173</v>
+        <v>0.76907384795633</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8493518672992639</v>
+        <v>0.8080657267417627</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9270588345880343</v>
+        <v>0.8324416213359362</v>
       </c>
       <c r="G160" t="n">
-        <v>0.8059655571946133</v>
+        <v>0.7911388003358568</v>
       </c>
       <c r="H160" t="n">
-        <v>0.5970345387655339</v>
+        <v>0.7553219711293653</v>
       </c>
     </row>
     <row r="161">
@@ -4617,22 +4617,22 @@
         <v>15.5</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6689453654842374</v>
+        <v>0.8493254908561427</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8493518672992639</v>
+        <v>0.8080657267417627</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9270588345880343</v>
+        <v>0.8324416213359362</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8059655571946133</v>
+        <v>0.7911388003358568</v>
       </c>
       <c r="H161" t="n">
-        <v>0.5111425419735296</v>
+        <v>0.7644101258459592</v>
       </c>
     </row>
   </sheetData>
